--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="16">
   <si>
     <t>Provincia</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Altas</t>
+  </si>
+  <si>
+    <t>Curados</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +432,7 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -451,8 +454,11 @@
       <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43902</v>
       </c>
@@ -463,7 +469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43902</v>
       </c>
@@ -474,7 +480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
@@ -485,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43902</v>
       </c>
@@ -496,7 +502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43902</v>
       </c>
@@ -507,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43902</v>
       </c>
@@ -518,7 +524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -529,7 +535,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -540,7 +546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -563,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
@@ -586,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -609,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43903</v>
       </c>
@@ -632,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -655,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43903</v>
       </c>
@@ -678,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43903</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43911</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43912</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43912</v>
       </c>
@@ -2164,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43912</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43912</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43912</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43912</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43912</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43912</v>
       </c>
@@ -2282,6 +2288,214 @@
       </c>
       <c r="F89">
         <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>74</v>
+      </c>
+      <c r="D90">
+        <v>23</v>
+      </c>
+      <c r="E90">
+        <v>49</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>178</v>
+      </c>
+      <c r="D91">
+        <v>50</v>
+      </c>
+      <c r="E91">
+        <v>125</v>
+      </c>
+      <c r="F91">
+        <v>3</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>191</v>
+      </c>
+      <c r="D92">
+        <v>50</v>
+      </c>
+      <c r="E92">
+        <v>137</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>374</v>
+      </c>
+      <c r="D93">
+        <v>169</v>
+      </c>
+      <c r="E93">
+        <v>188</v>
+      </c>
+      <c r="F93">
+        <v>17</v>
+      </c>
+      <c r="G93">
+        <v>18</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>58</v>
+      </c>
+      <c r="D94">
+        <v>29</v>
+      </c>
+      <c r="E94">
+        <v>28</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>215</v>
+      </c>
+      <c r="D95">
+        <v>79</v>
+      </c>
+      <c r="E95">
+        <v>131</v>
+      </c>
+      <c r="F95">
+        <v>5</v>
+      </c>
+      <c r="G95">
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>520</v>
+      </c>
+      <c r="D96">
+        <v>192</v>
+      </c>
+      <c r="E96">
+        <v>307</v>
+      </c>
+      <c r="F96">
+        <v>21</v>
+      </c>
+      <c r="G96">
+        <v>44</v>
+      </c>
+      <c r="H96">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>351</v>
+      </c>
+      <c r="D97">
+        <v>152</v>
+      </c>
+      <c r="E97">
+        <v>194</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>13</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>Provincia</t>
   </si>
@@ -415,10 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A86" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,6 +2499,214 @@
         <v>5</v>
       </c>
     </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>91</v>
+      </c>
+      <c r="D98">
+        <v>39</v>
+      </c>
+      <c r="E98">
+        <v>47</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>6</v>
+      </c>
+      <c r="H98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>245</v>
+      </c>
+      <c r="D99">
+        <v>73</v>
+      </c>
+      <c r="E99">
+        <v>169</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>7</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>234</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+      <c r="E100">
+        <v>128</v>
+      </c>
+      <c r="F100">
+        <v>6</v>
+      </c>
+      <c r="G100">
+        <v>9</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>480</v>
+      </c>
+      <c r="D101">
+        <v>215</v>
+      </c>
+      <c r="E101">
+        <v>244</v>
+      </c>
+      <c r="F101">
+        <v>21</v>
+      </c>
+      <c r="G101">
+        <v>22</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>70</v>
+      </c>
+      <c r="D102">
+        <v>38</v>
+      </c>
+      <c r="E102">
+        <v>31</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>259</v>
+      </c>
+      <c r="D103">
+        <v>134</v>
+      </c>
+      <c r="E103">
+        <v>113</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>15</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>665</v>
+      </c>
+      <c r="D104">
+        <v>333</v>
+      </c>
+      <c r="E104">
+        <v>306</v>
+      </c>
+      <c r="F104">
+        <v>26</v>
+      </c>
+      <c r="G104">
+        <v>69</v>
+      </c>
+      <c r="H104">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>427</v>
+      </c>
+      <c r="D105">
+        <v>200</v>
+      </c>
+      <c r="E105">
+        <v>214</v>
+      </c>
+      <c r="F105">
+        <v>13</v>
+      </c>
+      <c r="G105">
+        <v>23</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
   <si>
     <t>Provincia</t>
   </si>
@@ -415,11 +415,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A86" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="600" topLeftCell="A95" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G106" sqref="G106:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,6 +2707,214 @@
         <v>5</v>
       </c>
     </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>115</v>
+      </c>
+      <c r="D106">
+        <v>50</v>
+      </c>
+      <c r="E106">
+        <v>60</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>278</v>
+      </c>
+      <c r="D107">
+        <v>84</v>
+      </c>
+      <c r="E107">
+        <v>190</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>7</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>291</v>
+      </c>
+      <c r="D108">
+        <v>135</v>
+      </c>
+      <c r="E108">
+        <v>150</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+      <c r="G108">
+        <v>11</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>579</v>
+      </c>
+      <c r="D109">
+        <v>263</v>
+      </c>
+      <c r="E109">
+        <v>291</v>
+      </c>
+      <c r="F109">
+        <v>25</v>
+      </c>
+      <c r="G109">
+        <v>29</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>77</v>
+      </c>
+      <c r="D110">
+        <v>42</v>
+      </c>
+      <c r="E110">
+        <v>34</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>316</v>
+      </c>
+      <c r="D111">
+        <v>167</v>
+      </c>
+      <c r="E111">
+        <v>135</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111">
+        <v>18</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>819</v>
+      </c>
+      <c r="D112">
+        <v>431</v>
+      </c>
+      <c r="E112">
+        <v>348</v>
+      </c>
+      <c r="F112">
+        <v>40</v>
+      </c>
+      <c r="G112">
+        <v>89</v>
+      </c>
+      <c r="H112">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>535</v>
+      </c>
+      <c r="D113">
+        <v>261</v>
+      </c>
+      <c r="E113">
+        <v>256</v>
+      </c>
+      <c r="F113">
+        <v>18</v>
+      </c>
+      <c r="G113">
+        <v>31</v>
+      </c>
+      <c r="H113">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="17">
   <si>
     <t>Provincia</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Curados</t>
+  </si>
+  <si>
+    <t>Notas</t>
   </si>
 </sst>
 </file>
@@ -415,11 +418,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A95" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="G106" sqref="G106:G113"/>
+      <pane ySplit="600" topLeftCell="A101" activePane="bottomLeft"/>
+      <selection activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,13 +431,13 @@
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -458,8 +462,11 @@
       <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43902</v>
       </c>
@@ -470,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43902</v>
       </c>
@@ -481,7 +488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
@@ -492,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43902</v>
       </c>
@@ -503,7 +510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43902</v>
       </c>
@@ -514,7 +521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43902</v>
       </c>
@@ -525,7 +532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -536,7 +543,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -547,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -570,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
@@ -593,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -616,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43903</v>
       </c>
@@ -639,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -662,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43903</v>
       </c>
@@ -685,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43903</v>
       </c>
@@ -2913,6 +2920,214 @@
       </c>
       <c r="H113">
         <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>134</v>
+      </c>
+      <c r="D114">
+        <v>62</v>
+      </c>
+      <c r="E114">
+        <v>65</v>
+      </c>
+      <c r="F114">
+        <v>7</v>
+      </c>
+      <c r="G114">
+        <v>8</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>299</v>
+      </c>
+      <c r="D115">
+        <v>92</v>
+      </c>
+      <c r="E115">
+        <v>202</v>
+      </c>
+      <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115">
+        <v>9</v>
+      </c>
+      <c r="H115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>349</v>
+      </c>
+      <c r="D116">
+        <v>161</v>
+      </c>
+      <c r="E116">
+        <v>181</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116">
+        <v>14</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>648</v>
+      </c>
+      <c r="D117">
+        <v>287</v>
+      </c>
+      <c r="E117">
+        <v>329</v>
+      </c>
+      <c r="F117">
+        <v>32</v>
+      </c>
+      <c r="G117">
+        <v>34</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>95</v>
+      </c>
+      <c r="D118">
+        <v>52</v>
+      </c>
+      <c r="E118">
+        <v>41</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>4</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>349</v>
+      </c>
+      <c r="D119">
+        <v>189</v>
+      </c>
+      <c r="E119">
+        <v>145</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119">
+        <v>19</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120">
+        <v>905</v>
+      </c>
+      <c r="D120">
+        <v>490</v>
+      </c>
+      <c r="E120">
+        <v>373</v>
+      </c>
+      <c r="F120">
+        <v>42</v>
+      </c>
+      <c r="G120">
+        <v>95</v>
+      </c>
+      <c r="H120">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>627</v>
+      </c>
+      <c r="D121">
+        <v>293</v>
+      </c>
+      <c r="E121">
+        <v>310</v>
+      </c>
+      <c r="F121">
+        <v>24</v>
+      </c>
+      <c r="G121">
+        <v>45</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="17">
   <si>
     <t>Provincia</t>
   </si>
@@ -418,12 +418,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A101" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A104" activePane="bottomLeft"/>
       <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="I117" sqref="I117"/>
+      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,6 +3130,214 @@
         <v>8</v>
       </c>
     </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>142</v>
+      </c>
+      <c r="D122">
+        <v>65</v>
+      </c>
+      <c r="E122">
+        <v>69</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <v>9</v>
+      </c>
+      <c r="H122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>348</v>
+      </c>
+      <c r="D123">
+        <v>117</v>
+      </c>
+      <c r="E123">
+        <v>225</v>
+      </c>
+      <c r="F123">
+        <v>6</v>
+      </c>
+      <c r="G123">
+        <v>9</v>
+      </c>
+      <c r="H123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>359</v>
+      </c>
+      <c r="D124">
+        <v>168</v>
+      </c>
+      <c r="E124">
+        <v>183</v>
+      </c>
+      <c r="F124">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>14</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>711</v>
+      </c>
+      <c r="D125">
+        <v>336</v>
+      </c>
+      <c r="E125">
+        <v>341</v>
+      </c>
+      <c r="F125">
+        <v>34</v>
+      </c>
+      <c r="G125">
+        <v>40</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>105</v>
+      </c>
+      <c r="D126">
+        <v>60</v>
+      </c>
+      <c r="E126">
+        <v>43</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>4</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>414</v>
+      </c>
+      <c r="D127">
+        <v>228</v>
+      </c>
+      <c r="E127">
+        <v>171</v>
+      </c>
+      <c r="F127">
+        <v>15</v>
+      </c>
+      <c r="G127">
+        <v>21</v>
+      </c>
+      <c r="H127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>1006</v>
+      </c>
+      <c r="D128">
+        <v>540</v>
+      </c>
+      <c r="E128">
+        <v>420</v>
+      </c>
+      <c r="F128">
+        <v>46</v>
+      </c>
+      <c r="G128">
+        <v>104</v>
+      </c>
+      <c r="H128">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>708</v>
+      </c>
+      <c r="D129">
+        <v>329</v>
+      </c>
+      <c r="E129">
+        <v>354</v>
+      </c>
+      <c r="F129">
+        <v>25</v>
+      </c>
+      <c r="G129">
+        <v>50</v>
+      </c>
+      <c r="H129">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="17">
   <si>
     <t>Provincia</t>
   </si>
@@ -418,12 +418,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A104" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A116" activePane="bottomLeft"/>
       <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="H123" sqref="H123"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,6 +3338,214 @@
         <v>8</v>
       </c>
     </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>173</v>
+      </c>
+      <c r="D130">
+        <v>72</v>
+      </c>
+      <c r="E130">
+        <v>91</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <v>12</v>
+      </c>
+      <c r="H130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>406</v>
+      </c>
+      <c r="D131">
+        <v>156</v>
+      </c>
+      <c r="E131">
+        <v>243</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>9</v>
+      </c>
+      <c r="H131">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>424</v>
+      </c>
+      <c r="D132">
+        <v>200</v>
+      </c>
+      <c r="E132">
+        <v>215</v>
+      </c>
+      <c r="F132">
+        <v>9</v>
+      </c>
+      <c r="G132">
+        <v>16</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>806</v>
+      </c>
+      <c r="D133">
+        <v>396</v>
+      </c>
+      <c r="E133">
+        <v>361</v>
+      </c>
+      <c r="F133">
+        <v>49</v>
+      </c>
+      <c r="G133">
+        <v>56</v>
+      </c>
+      <c r="H133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>120</v>
+      </c>
+      <c r="D134">
+        <v>66</v>
+      </c>
+      <c r="E134">
+        <v>52</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>5</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>465</v>
+      </c>
+      <c r="D135">
+        <v>258</v>
+      </c>
+      <c r="E135">
+        <v>191</v>
+      </c>
+      <c r="F135">
+        <v>16</v>
+      </c>
+      <c r="G135">
+        <v>28</v>
+      </c>
+      <c r="H135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136">
+        <v>1053</v>
+      </c>
+      <c r="D136">
+        <v>575</v>
+      </c>
+      <c r="E136">
+        <v>422</v>
+      </c>
+      <c r="F136">
+        <v>56</v>
+      </c>
+      <c r="G136">
+        <v>150</v>
+      </c>
+      <c r="H136">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>830</v>
+      </c>
+      <c r="D137">
+        <v>383</v>
+      </c>
+      <c r="E137">
+        <v>421</v>
+      </c>
+      <c r="F137">
+        <v>26</v>
+      </c>
+      <c r="G137">
+        <v>57</v>
+      </c>
+      <c r="H137">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="17">
   <si>
     <t>Provincia</t>
   </si>
@@ -418,12 +418,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I137"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A116" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A128" activePane="bottomLeft"/>
       <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,6 +3546,214 @@
         <v>13</v>
       </c>
     </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>200</v>
+      </c>
+      <c r="D138">
+        <v>86</v>
+      </c>
+      <c r="E138">
+        <v>102</v>
+      </c>
+      <c r="F138">
+        <v>12</v>
+      </c>
+      <c r="G138">
+        <v>12</v>
+      </c>
+      <c r="H138">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>447</v>
+      </c>
+      <c r="D139">
+        <v>170</v>
+      </c>
+      <c r="E139">
+        <v>268</v>
+      </c>
+      <c r="F139">
+        <v>9</v>
+      </c>
+      <c r="G139">
+        <v>13</v>
+      </c>
+      <c r="H139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>473</v>
+      </c>
+      <c r="D140">
+        <v>221</v>
+      </c>
+      <c r="E140">
+        <v>241</v>
+      </c>
+      <c r="F140">
+        <v>11</v>
+      </c>
+      <c r="G140">
+        <v>20</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>860</v>
+      </c>
+      <c r="D141">
+        <v>427</v>
+      </c>
+      <c r="E141">
+        <v>376</v>
+      </c>
+      <c r="F141">
+        <v>57</v>
+      </c>
+      <c r="G141">
+        <v>64</v>
+      </c>
+      <c r="H141">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>131</v>
+      </c>
+      <c r="D142">
+        <v>72</v>
+      </c>
+      <c r="E142">
+        <v>55</v>
+      </c>
+      <c r="F142">
+        <v>4</v>
+      </c>
+      <c r="G142">
+        <v>9</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>501</v>
+      </c>
+      <c r="D143">
+        <v>279</v>
+      </c>
+      <c r="E143">
+        <v>202</v>
+      </c>
+      <c r="F143">
+        <v>20</v>
+      </c>
+      <c r="G143">
+        <v>35</v>
+      </c>
+      <c r="H143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144">
+        <v>1158</v>
+      </c>
+      <c r="D144">
+        <v>642</v>
+      </c>
+      <c r="E144">
+        <v>452</v>
+      </c>
+      <c r="F144">
+        <v>64</v>
+      </c>
+      <c r="G144">
+        <v>176</v>
+      </c>
+      <c r="H144">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>912</v>
+      </c>
+      <c r="D145">
+        <v>397</v>
+      </c>
+      <c r="E145">
+        <v>485</v>
+      </c>
+      <c r="F145">
+        <v>30</v>
+      </c>
+      <c r="G145">
+        <v>78</v>
+      </c>
+      <c r="H145">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="17">
   <si>
     <t>Provincia</t>
   </si>
@@ -418,12 +418,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A128" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A134" activePane="bottomLeft"/>
       <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="I141" sqref="I141"/>
+      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,6 +3754,214 @@
         <v>17</v>
       </c>
     </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>223</v>
+      </c>
+      <c r="D146">
+        <v>96</v>
+      </c>
+      <c r="E146">
+        <v>113</v>
+      </c>
+      <c r="F146">
+        <v>14</v>
+      </c>
+      <c r="G146">
+        <v>15</v>
+      </c>
+      <c r="H146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>507</v>
+      </c>
+      <c r="D147">
+        <v>207</v>
+      </c>
+      <c r="E147">
+        <v>287</v>
+      </c>
+      <c r="F147">
+        <v>13</v>
+      </c>
+      <c r="G147">
+        <v>18</v>
+      </c>
+      <c r="H147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>572</v>
+      </c>
+      <c r="D148">
+        <v>269</v>
+      </c>
+      <c r="E148">
+        <v>290</v>
+      </c>
+      <c r="F148">
+        <v>13</v>
+      </c>
+      <c r="G148">
+        <v>23</v>
+      </c>
+      <c r="H148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>963</v>
+      </c>
+      <c r="D149">
+        <v>493</v>
+      </c>
+      <c r="E149">
+        <v>404</v>
+      </c>
+      <c r="F149">
+        <v>66</v>
+      </c>
+      <c r="G149">
+        <v>86</v>
+      </c>
+      <c r="H149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>168</v>
+      </c>
+      <c r="D150">
+        <v>92</v>
+      </c>
+      <c r="E150">
+        <v>72</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150">
+        <v>9</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>599</v>
+      </c>
+      <c r="D151">
+        <v>319</v>
+      </c>
+      <c r="E151">
+        <v>257</v>
+      </c>
+      <c r="F151">
+        <v>23</v>
+      </c>
+      <c r="G151">
+        <v>37</v>
+      </c>
+      <c r="H151">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152">
+        <v>1321</v>
+      </c>
+      <c r="D152">
+        <v>725</v>
+      </c>
+      <c r="E152">
+        <v>527</v>
+      </c>
+      <c r="F152">
+        <v>69</v>
+      </c>
+      <c r="G152">
+        <v>185</v>
+      </c>
+      <c r="H152">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>1052</v>
+      </c>
+      <c r="D153">
+        <v>470</v>
+      </c>
+      <c r="E153">
+        <v>548</v>
+      </c>
+      <c r="F153">
+        <v>34</v>
+      </c>
+      <c r="G153">
+        <v>82</v>
+      </c>
+      <c r="H153">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
+    <sheet name="test-Andal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="24">
   <si>
     <t>Provincia</t>
   </si>
@@ -65,6 +66,27 @@
   </si>
   <si>
     <t>Notas</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>Ntest</t>
+  </si>
+  <si>
+    <t>Positivos</t>
+  </si>
+  <si>
+    <t>Fuente: https://twitter.com/JuanMa_Moreno</t>
+  </si>
+  <si>
+    <t>Ntest.dif</t>
+  </si>
+  <si>
+    <t>Positivos.dif</t>
+  </si>
+  <si>
+    <t>Prop</t>
   </si>
 </sst>
 </file>
@@ -418,12 +440,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A134" activePane="bottomLeft"/>
-      <selection activeCell="I2" sqref="I2"/>
-      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A146" activePane="bottomLeft"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,13 +453,13 @@
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -451,22 +473,25 @@
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43902</v>
       </c>
@@ -477,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43902</v>
       </c>
@@ -488,7 +513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
@@ -499,7 +524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43902</v>
       </c>
@@ -510,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43902</v>
       </c>
@@ -521,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43902</v>
       </c>
@@ -532,7 +557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -543,7 +568,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -554,7 +579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -567,17 +592,18 @@
       <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
         <v>13</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
       <c r="G10" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
@@ -590,17 +616,18 @@
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>18</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
       <c r="G11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -613,17 +640,18 @@
       <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <v>14</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
       <c r="G12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43903</v>
       </c>
@@ -636,17 +664,18 @@
       <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
         <v>15</v>
       </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
       <c r="G13" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -659,17 +688,18 @@
       <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
       <c r="G14" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43903</v>
       </c>
@@ -682,17 +712,18 @@
       <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
         <v>23</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
       <c r="G15" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43903</v>
       </c>
@@ -705,17 +736,18 @@
       <c r="D16" s="4">
         <v>46</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
         <v>73</v>
       </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
       <c r="G16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43903</v>
       </c>
@@ -728,17 +760,18 @@
       <c r="D17" s="4">
         <v>8</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
         <v>21</v>
       </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
       <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43904</v>
       </c>
@@ -751,17 +784,17 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>14</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43904</v>
       </c>
@@ -774,17 +807,17 @@
       <c r="D19">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>14</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43904</v>
       </c>
@@ -797,17 +830,17 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>17</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43904</v>
       </c>
@@ -820,17 +853,17 @@
       <c r="D21">
         <v>14</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>10</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43904</v>
       </c>
@@ -843,17 +876,17 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43904</v>
       </c>
@@ -866,17 +899,17 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>30</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43904</v>
       </c>
@@ -889,17 +922,17 @@
       <c r="D24">
         <v>52</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>82</v>
       </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43904</v>
       </c>
@@ -912,17 +945,17 @@
       <c r="D25">
         <v>13</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>19</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43905</v>
       </c>
@@ -935,17 +968,17 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>13</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43905</v>
       </c>
@@ -958,17 +991,17 @@
       <c r="D27">
         <v>8</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>25</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43905</v>
       </c>
@@ -981,17 +1014,17 @@
       <c r="D28">
         <v>6</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>29</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43905</v>
       </c>
@@ -1004,17 +1037,17 @@
       <c r="D29">
         <v>20</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>34</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43905</v>
       </c>
@@ -1027,17 +1060,17 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43905</v>
       </c>
@@ -1050,17 +1083,17 @@
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>41</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43905</v>
       </c>
@@ -1073,17 +1106,17 @@
       <c r="D32">
         <v>81</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>83</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43905</v>
       </c>
@@ -1096,17 +1129,17 @@
       <c r="D33">
         <v>15</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>42</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43906</v>
       </c>
@@ -1119,17 +1152,17 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>21</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43906</v>
       </c>
@@ -1142,17 +1175,17 @@
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>44</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43906</v>
       </c>
@@ -1165,17 +1198,17 @@
       <c r="D36">
         <v>7</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>29</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43906</v>
       </c>
@@ -1188,17 +1221,17 @@
       <c r="D37">
         <v>28</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>35</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43906</v>
       </c>
@@ -1211,17 +1244,17 @@
       <c r="D38">
         <v>5</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43906</v>
       </c>
@@ -1234,17 +1267,17 @@
       <c r="D39">
         <v>10</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>38</v>
       </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43906</v>
       </c>
@@ -1257,17 +1290,17 @@
       <c r="D40">
         <v>85</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>132</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>5</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43906</v>
       </c>
@@ -1280,17 +1313,17 @@
       <c r="D41">
         <v>21</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>53</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43907</v>
       </c>
@@ -1303,17 +1336,17 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>23</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43907</v>
       </c>
@@ -1326,17 +1359,17 @@
       <c r="D43">
         <v>3</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>53</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43907</v>
       </c>
@@ -1349,17 +1382,17 @@
       <c r="D44">
         <v>18</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>50</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43907</v>
       </c>
@@ -1372,17 +1405,17 @@
       <c r="D45">
         <v>36</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>57</v>
       </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
       <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43907</v>
       </c>
@@ -1395,17 +1428,17 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>7</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43907</v>
       </c>
@@ -1418,17 +1451,17 @@
       <c r="D47">
         <v>8</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>42</v>
       </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
       <c r="G47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43907</v>
       </c>
@@ -1441,17 +1474,17 @@
       <c r="D48">
         <v>97</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>175</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>6</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43907</v>
       </c>
@@ -1464,17 +1497,17 @@
       <c r="D49">
         <v>34</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>64</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43908</v>
       </c>
@@ -1487,17 +1520,17 @@
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>27</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43908</v>
       </c>
@@ -1510,17 +1543,17 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>71</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43908</v>
       </c>
@@ -1533,17 +1566,17 @@
       <c r="D52">
         <v>19</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>59</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43908</v>
       </c>
@@ -1556,17 +1589,17 @@
       <c r="D53">
         <v>29</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>95</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>6</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43908</v>
       </c>
@@ -1579,17 +1612,17 @@
       <c r="D54">
         <v>4</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>10</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43908</v>
       </c>
@@ -1602,17 +1635,17 @@
       <c r="D55">
         <v>10</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>65</v>
       </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
       <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43908</v>
       </c>
@@ -1625,17 +1658,17 @@
       <c r="D56">
         <v>113</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>210</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>10</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43908</v>
       </c>
@@ -1648,17 +1681,17 @@
       <c r="D57">
         <v>42</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>79</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43909</v>
       </c>
@@ -1671,14 +1704,14 @@
       <c r="D58">
         <v>7</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>30</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43909</v>
       </c>
@@ -1691,14 +1724,14 @@
       <c r="D59">
         <v>15</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>69</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43909</v>
       </c>
@@ -1711,14 +1744,14 @@
       <c r="D60">
         <v>26</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>75</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43909</v>
       </c>
@@ -1731,14 +1764,14 @@
       <c r="D61">
         <v>66</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>103</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43909</v>
       </c>
@@ -1751,14 +1784,14 @@
       <c r="D62">
         <v>15</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>8</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43909</v>
       </c>
@@ -1771,14 +1804,14 @@
       <c r="D63">
         <v>32</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>54</v>
       </c>
-      <c r="F63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43909</v>
       </c>
@@ -1791,14 +1824,14 @@
       <c r="D64">
         <v>93</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>255</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43909</v>
       </c>
@@ -1811,14 +1844,14 @@
       <c r="D65">
         <v>53</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>84</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43910</v>
       </c>
@@ -1831,14 +1864,14 @@
       <c r="D66">
         <v>9</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>37</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43910</v>
       </c>
@@ -1851,14 +1884,14 @@
       <c r="D67">
         <v>19</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>84</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43910</v>
       </c>
@@ -1871,14 +1904,14 @@
       <c r="D68">
         <v>25</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>100</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43910</v>
       </c>
@@ -1891,14 +1924,14 @@
       <c r="D69">
         <v>87</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>147</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43910</v>
       </c>
@@ -1911,14 +1944,14 @@
       <c r="D70">
         <v>13</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>23</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43910</v>
       </c>
@@ -1931,14 +1964,14 @@
       <c r="D71">
         <v>41</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>76</v>
       </c>
-      <c r="F71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43910</v>
       </c>
@@ -1951,14 +1984,14 @@
       <c r="D72">
         <v>109</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>298</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43910</v>
       </c>
@@ -1971,14 +2004,14 @@
       <c r="D73">
         <v>64</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>125</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43911</v>
       </c>
@@ -1991,14 +2024,14 @@
       <c r="D74">
         <v>13</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>40</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43911</v>
       </c>
@@ -2011,14 +2044,14 @@
       <c r="D75">
         <v>27</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>99</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43911</v>
       </c>
@@ -2031,14 +2064,14 @@
       <c r="D76">
         <v>34</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>106</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43911</v>
       </c>
@@ -2051,14 +2084,14 @@
       <c r="D77">
         <v>100</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>176</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43911</v>
       </c>
@@ -2071,14 +2104,14 @@
       <c r="D78">
         <v>16</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>21</v>
       </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43911</v>
       </c>
@@ -2091,14 +2124,14 @@
       <c r="D79">
         <v>63</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>73</v>
       </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43911</v>
       </c>
@@ -2111,14 +2144,14 @@
       <c r="D80">
         <v>161</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>303</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43911</v>
       </c>
@@ -2131,14 +2164,14 @@
       <c r="D81">
         <v>89</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>154</v>
       </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43912</v>
       </c>
@@ -2151,14 +2184,14 @@
       <c r="D82">
         <v>17</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>40</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43912</v>
       </c>
@@ -2171,14 +2204,14 @@
       <c r="D83">
         <v>34</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>98</v>
       </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43912</v>
       </c>
@@ -2191,14 +2224,14 @@
       <c r="D84">
         <v>39</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>138</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43912</v>
       </c>
@@ -2211,14 +2244,14 @@
       <c r="D85">
         <v>145</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>177</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43912</v>
       </c>
@@ -2231,14 +2264,14 @@
       <c r="D86">
         <v>24</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>23</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43912</v>
       </c>
@@ -2251,14 +2284,14 @@
       <c r="D87">
         <v>62</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>106</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43912</v>
       </c>
@@ -2271,14 +2304,14 @@
       <c r="D88">
         <v>169</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>315</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43912</v>
       </c>
@@ -2291,14 +2324,14 @@
       <c r="D89">
         <v>126</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>165</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43913</v>
       </c>
@@ -2311,20 +2344,20 @@
       <c r="D90">
         <v>23</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>49</v>
       </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
       <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
         <v>3</v>
       </c>
-      <c r="H90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43913</v>
       </c>
@@ -2337,20 +2370,20 @@
       <c r="D91">
         <v>50</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>125</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>3</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>6</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43913</v>
       </c>
@@ -2363,20 +2396,20 @@
       <c r="D92">
         <v>50</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>137</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>4</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>7</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43913</v>
       </c>
@@ -2389,20 +2422,20 @@
       <c r="D93">
         <v>169</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>188</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>17</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>18</v>
       </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43913</v>
       </c>
@@ -2415,20 +2448,20 @@
       <c r="D94">
         <v>29</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>28</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43913</v>
       </c>
@@ -2441,20 +2474,20 @@
       <c r="D95">
         <v>79</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>131</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>5</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>12</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43913</v>
       </c>
@@ -2467,20 +2500,20 @@
       <c r="D96">
         <v>192</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>307</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>21</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>44</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43913</v>
       </c>
@@ -2493,20 +2526,20 @@
       <c r="D97">
         <v>152</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>194</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>5</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>13</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43914</v>
       </c>
@@ -2519,20 +2552,20 @@
       <c r="D98">
         <v>39</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>47</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>5</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>6</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43914</v>
       </c>
@@ -2545,20 +2578,20 @@
       <c r="D99">
         <v>73</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>169</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>3</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>7</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43914</v>
       </c>
@@ -2571,20 +2604,20 @@
       <c r="D100">
         <v>100</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>128</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>6</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>9</v>
       </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43914</v>
       </c>
@@ -2597,20 +2630,20 @@
       <c r="D101">
         <v>215</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>244</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>21</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>22</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43914</v>
       </c>
@@ -2623,20 +2656,20 @@
       <c r="D102">
         <v>38</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>31</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>1</v>
       </c>
-      <c r="G102">
-        <v>2</v>
-      </c>
       <c r="H102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43914</v>
       </c>
@@ -2649,20 +2682,20 @@
       <c r="D103">
         <v>134</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>113</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>12</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>15</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43914</v>
       </c>
@@ -2675,20 +2708,20 @@
       <c r="D104">
         <v>333</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>306</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>26</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>69</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43914</v>
       </c>
@@ -2701,20 +2734,20 @@
       <c r="D105">
         <v>200</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>214</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>13</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>23</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43915</v>
       </c>
@@ -2727,20 +2760,20 @@
       <c r="D106">
         <v>50</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>60</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>5</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>6</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43915</v>
       </c>
@@ -2753,20 +2786,20 @@
       <c r="D107">
         <v>84</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>190</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>4</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>7</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43915</v>
       </c>
@@ -2779,20 +2812,20 @@
       <c r="D108">
         <v>135</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>150</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>6</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>11</v>
       </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43915</v>
       </c>
@@ -2805,20 +2838,20 @@
       <c r="D109">
         <v>263</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>291</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>25</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>29</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43915</v>
       </c>
@@ -2831,20 +2864,20 @@
       <c r="D110">
         <v>42</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>34</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>1</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>3</v>
       </c>
-      <c r="H110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43915</v>
       </c>
@@ -2857,20 +2890,20 @@
       <c r="D111">
         <v>167</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>135</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>14</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>18</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43915</v>
       </c>
@@ -2883,20 +2916,20 @@
       <c r="D112">
         <v>431</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>348</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>40</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>89</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43915</v>
       </c>
@@ -2909,20 +2942,20 @@
       <c r="D113">
         <v>261</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>256</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>18</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>31</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43916</v>
       </c>
@@ -2935,20 +2968,20 @@
       <c r="D114">
         <v>62</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>65</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>7</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>8</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43916</v>
       </c>
@@ -2961,20 +2994,20 @@
       <c r="D115">
         <v>92</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>202</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>5</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>9</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43916</v>
       </c>
@@ -2987,20 +3020,20 @@
       <c r="D116">
         <v>161</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>181</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>7</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>14</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43916</v>
       </c>
@@ -3013,20 +3046,20 @@
       <c r="D117">
         <v>287</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>329</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>32</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>34</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43916</v>
       </c>
@@ -3039,20 +3072,20 @@
       <c r="D118">
         <v>52</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>41</v>
       </c>
-      <c r="F118">
-        <v>2</v>
-      </c>
       <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
         <v>4</v>
       </c>
-      <c r="H118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43916</v>
       </c>
@@ -3065,20 +3098,20 @@
       <c r="D119">
         <v>189</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>145</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>15</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>19</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43916</v>
       </c>
@@ -3091,20 +3124,20 @@
       <c r="D120">
         <v>490</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>373</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>42</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>95</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43916</v>
       </c>
@@ -3117,20 +3150,20 @@
       <c r="D121">
         <v>293</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>310</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>24</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>45</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43917</v>
       </c>
@@ -3143,20 +3176,20 @@
       <c r="D122">
         <v>65</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>69</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>8</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>9</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43917</v>
       </c>
@@ -3169,20 +3202,20 @@
       <c r="D123">
         <v>117</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>225</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>6</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>9</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43917</v>
       </c>
@@ -3195,20 +3228,20 @@
       <c r="D124">
         <v>168</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>183</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>8</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>14</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43917</v>
       </c>
@@ -3221,20 +3254,20 @@
       <c r="D125">
         <v>336</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>341</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>34</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>40</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43917</v>
       </c>
@@ -3247,20 +3280,20 @@
       <c r="D126">
         <v>60</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>43</v>
       </c>
-      <c r="F126">
-        <v>2</v>
-      </c>
       <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
         <v>4</v>
       </c>
-      <c r="H126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43917</v>
       </c>
@@ -3273,20 +3306,20 @@
       <c r="D127">
         <v>228</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>171</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>15</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>21</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43917</v>
       </c>
@@ -3299,20 +3332,20 @@
       <c r="D128">
         <v>540</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>420</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>46</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>104</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43917</v>
       </c>
@@ -3325,20 +3358,20 @@
       <c r="D129">
         <v>329</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>354</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>25</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>50</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43918</v>
       </c>
@@ -3351,20 +3384,20 @@
       <c r="D130">
         <v>72</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>91</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>10</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>12</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43918</v>
       </c>
@@ -3377,20 +3410,20 @@
       <c r="D131">
         <v>156</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>243</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>7</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>9</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43918</v>
       </c>
@@ -3403,20 +3436,20 @@
       <c r="D132">
         <v>200</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>215</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>9</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>16</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43918</v>
       </c>
@@ -3429,20 +3462,20 @@
       <c r="D133">
         <v>396</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>361</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>49</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>56</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43918</v>
       </c>
@@ -3455,20 +3488,20 @@
       <c r="D134">
         <v>66</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>52</v>
       </c>
-      <c r="F134">
-        <v>2</v>
-      </c>
       <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134">
         <v>5</v>
       </c>
-      <c r="H134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43918</v>
       </c>
@@ -3481,20 +3514,20 @@
       <c r="D135">
         <v>258</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>191</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>16</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>28</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43918</v>
       </c>
@@ -3507,20 +3540,20 @@
       <c r="D136">
         <v>575</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>422</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>56</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>150</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43918</v>
       </c>
@@ -3533,20 +3566,20 @@
       <c r="D137">
         <v>383</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>421</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>26</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>57</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43919</v>
       </c>
@@ -3559,20 +3592,20 @@
       <c r="D138">
         <v>86</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>102</v>
-      </c>
-      <c r="F138">
-        <v>12</v>
       </c>
       <c r="G138">
         <v>12</v>
       </c>
       <c r="H138">
+        <v>12</v>
+      </c>
+      <c r="I138">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43919</v>
       </c>
@@ -3585,20 +3618,20 @@
       <c r="D139">
         <v>170</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>268</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>9</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>13</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43919</v>
       </c>
@@ -3611,20 +3644,20 @@
       <c r="D140">
         <v>221</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>241</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>11</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>20</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43919</v>
       </c>
@@ -3637,20 +3670,20 @@
       <c r="D141">
         <v>427</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>376</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>57</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>64</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43919</v>
       </c>
@@ -3663,20 +3696,20 @@
       <c r="D142">
         <v>72</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>55</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>4</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>9</v>
       </c>
-      <c r="H142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43919</v>
       </c>
@@ -3689,20 +3722,20 @@
       <c r="D143">
         <v>279</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>202</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>20</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>35</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43919</v>
       </c>
@@ -3715,20 +3748,20 @@
       <c r="D144">
         <v>642</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>452</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>64</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>176</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43919</v>
       </c>
@@ -3741,20 +3774,20 @@
       <c r="D145">
         <v>397</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>485</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>30</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>78</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43920</v>
       </c>
@@ -3767,20 +3800,20 @@
       <c r="D146">
         <v>96</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>113</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>14</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>15</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43920</v>
       </c>
@@ -3793,20 +3826,20 @@
       <c r="D147">
         <v>207</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>287</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>13</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>18</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43920</v>
       </c>
@@ -3819,20 +3852,20 @@
       <c r="D148">
         <v>269</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>290</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>13</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>23</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43920</v>
       </c>
@@ -3845,20 +3878,20 @@
       <c r="D149">
         <v>493</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>404</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>66</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>86</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43920</v>
       </c>
@@ -3871,20 +3904,20 @@
       <c r="D150">
         <v>92</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>72</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>4</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>9</v>
       </c>
-      <c r="H150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43920</v>
       </c>
@@ -3897,20 +3930,20 @@
       <c r="D151">
         <v>319</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>257</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>23</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>37</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43920</v>
       </c>
@@ -3923,20 +3956,20 @@
       <c r="D152">
         <v>725</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>527</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>69</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>185</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>83</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43920</v>
       </c>
@@ -3949,17 +3982,225 @@
       <c r="D153">
         <v>470</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>548</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>34</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>82</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>251</v>
+      </c>
+      <c r="D154">
+        <v>108</v>
+      </c>
+      <c r="E154">
+        <v>15</v>
+      </c>
+      <c r="G154">
+        <v>16</v>
+      </c>
+      <c r="H154">
+        <v>26</v>
+      </c>
+      <c r="I154">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>539</v>
+      </c>
+      <c r="D155">
+        <v>216</v>
+      </c>
+      <c r="E155">
+        <v>19</v>
+      </c>
+      <c r="G155">
+        <v>14</v>
+      </c>
+      <c r="H155">
+        <v>18</v>
+      </c>
+      <c r="I155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>661</v>
+      </c>
+      <c r="D156">
+        <v>288</v>
+      </c>
+      <c r="E156">
+        <v>17</v>
+      </c>
+      <c r="G156">
+        <v>15</v>
+      </c>
+      <c r="H156">
+        <v>26</v>
+      </c>
+      <c r="I156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>1061</v>
+      </c>
+      <c r="D157">
+        <v>556</v>
+      </c>
+      <c r="E157">
+        <v>50</v>
+      </c>
+      <c r="G157">
+        <v>67</v>
+      </c>
+      <c r="H157">
+        <v>89</v>
+      </c>
+      <c r="I157">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <v>177</v>
+      </c>
+      <c r="D158">
+        <v>96</v>
+      </c>
+      <c r="E158">
+        <v>7</v>
+      </c>
+      <c r="G158">
+        <v>4</v>
+      </c>
+      <c r="H158">
+        <v>9</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>661</v>
+      </c>
+      <c r="D159">
+        <v>358</v>
+      </c>
+      <c r="E159">
+        <v>13</v>
+      </c>
+      <c r="G159">
+        <v>26</v>
+      </c>
+      <c r="H159">
+        <v>40</v>
+      </c>
+      <c r="I159">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160">
+        <v>1349</v>
+      </c>
+      <c r="D160">
+        <v>745</v>
+      </c>
+      <c r="E160">
+        <v>61</v>
+      </c>
+      <c r="G160">
+        <v>70</v>
+      </c>
+      <c r="H160">
+        <v>186</v>
+      </c>
+      <c r="I160">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>1119</v>
+      </c>
+      <c r="D161">
+        <v>500</v>
+      </c>
+      <c r="E161">
+        <v>53</v>
+      </c>
+      <c r="G161">
+        <v>36</v>
+      </c>
+      <c r="H161">
+        <v>89</v>
+      </c>
+      <c r="I161">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3969,4 +4210,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B2">
+        <v>20791</v>
+      </c>
+      <c r="C2">
+        <v>4277</v>
+      </c>
+      <c r="D2">
+        <f>B3-B2</f>
+        <v>444</v>
+      </c>
+      <c r="E2">
+        <f>C3-C2</f>
+        <v>405</v>
+      </c>
+      <c r="F2">
+        <f>E2/D2</f>
+        <v>0.91216216216216217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B3">
+        <v>21235</v>
+      </c>
+      <c r="C3">
+        <v>4682</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">B4-B3</f>
+        <v>2732</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="1">C4-C3</f>
+        <v>723</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="2">E3/D3</f>
+        <v>0.26464128843338214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B4">
+        <v>23967</v>
+      </c>
+      <c r="C4">
+        <v>5405</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>883</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.46772366930917325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B5">
+        <v>24850</v>
+      </c>
+      <c r="C5">
+        <v>5818</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-24850</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>-5818</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.23412474849094567</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F5">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="24">
   <si>
     <t>Provincia</t>
   </si>
@@ -86,7 +86,7 @@
     <t>Positivos.dif</t>
   </si>
   <si>
-    <t>Prop</t>
+    <t>Proporcion</t>
   </si>
 </sst>
 </file>
@@ -440,12 +440,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A146" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A149" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
+      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4203,6 +4203,190 @@
         <v>17</v>
       </c>
     </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>262</v>
+      </c>
+      <c r="D162">
+        <v>124</v>
+      </c>
+      <c r="E162">
+        <v>18</v>
+      </c>
+      <c r="G162">
+        <v>17</v>
+      </c>
+      <c r="I162">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>645</v>
+      </c>
+      <c r="D163">
+        <v>266</v>
+      </c>
+      <c r="E163">
+        <v>22</v>
+      </c>
+      <c r="G163">
+        <v>17</v>
+      </c>
+      <c r="I163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>687</v>
+      </c>
+      <c r="D164">
+        <v>302</v>
+      </c>
+      <c r="E164">
+        <v>19</v>
+      </c>
+      <c r="G164">
+        <v>21</v>
+      </c>
+      <c r="I164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>1182</v>
+      </c>
+      <c r="D165">
+        <v>603</v>
+      </c>
+      <c r="E165">
+        <v>56</v>
+      </c>
+      <c r="G165">
+        <v>80</v>
+      </c>
+      <c r="I165">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>195</v>
+      </c>
+      <c r="D166">
+        <v>106</v>
+      </c>
+      <c r="E166">
+        <v>7</v>
+      </c>
+      <c r="G166">
+        <v>4</v>
+      </c>
+      <c r="I166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>742</v>
+      </c>
+      <c r="D167">
+        <v>395</v>
+      </c>
+      <c r="E167">
+        <v>16</v>
+      </c>
+      <c r="G167">
+        <v>37</v>
+      </c>
+      <c r="I167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>1464</v>
+      </c>
+      <c r="D168">
+        <v>815</v>
+      </c>
+      <c r="E168">
+        <v>65</v>
+      </c>
+      <c r="G168">
+        <v>77</v>
+      </c>
+      <c r="I168">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>1215</v>
+      </c>
+      <c r="D169">
+        <v>536</v>
+      </c>
+      <c r="E169">
+        <v>57</v>
+      </c>
+      <c r="G169">
+        <v>55</v>
+      </c>
+      <c r="I169">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -4214,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4259,17 +4443,8 @@
       <c r="C2">
         <v>4277</v>
       </c>
-      <c r="D2">
-        <f>B3-B2</f>
-        <v>444</v>
-      </c>
-      <c r="E2">
-        <f>C3-C2</f>
-        <v>405</v>
-      </c>
-      <c r="F2">
-        <f>E2/D2</f>
-        <v>0.91216216216216217</v>
+      <c r="G2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4283,16 +4458,16 @@
         <v>4682</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">B4-B3</f>
-        <v>2732</v>
+        <f>B3-B2</f>
+        <v>444</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="1">C4-C3</f>
-        <v>723</v>
+        <f>C3-C2</f>
+        <v>405</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="2">E3/D3</f>
-        <v>0.26464128843338214</v>
+        <f t="shared" ref="F3:F6" si="0">E3/D3</f>
+        <v>0.91216216216216217</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4306,16 +4481,16 @@
         <v>5405</v>
       </c>
       <c r="D4">
+        <f t="shared" ref="D4:D6" si="1">B4-B3</f>
+        <v>2732</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="2">C4-C3</f>
+        <v>723</v>
+      </c>
+      <c r="F4">
         <f t="shared" si="0"/>
-        <v>883</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>413</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.46772366930917325</v>
+        <v>0.26464128843338214</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4329,19 +4504,39 @@
         <v>5818</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>883</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>413</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>-24850</v>
-      </c>
-      <c r="E5">
+        <v>0.46772366930917325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B6">
+        <v>26813</v>
+      </c>
+      <c r="C6">
+        <v>6392</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="1"/>
-        <v>-5818</v>
-      </c>
-      <c r="F5">
+        <v>1963</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="2"/>
-        <v>0.23412474849094567</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
+        <v>574</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.29240957717778909</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="23">
   <si>
     <t>Provincia</t>
   </si>
@@ -71,22 +71,19 @@
     <t>UCI</t>
   </si>
   <si>
-    <t>Ntest</t>
-  </si>
-  <si>
-    <t>Positivos</t>
-  </si>
-  <si>
     <t>Fuente: https://twitter.com/JuanMa_Moreno</t>
   </si>
   <si>
-    <t>Ntest.dif</t>
+    <t>Ntest.acum</t>
   </si>
   <si>
-    <t>Positivos.dif</t>
+    <t>Ntest.dia</t>
   </si>
   <si>
-    <t>Proporcion</t>
+    <t>Positivos.dia</t>
+  </si>
+  <si>
+    <t>Proporcion.Positivos</t>
   </si>
 </sst>
 </file>
@@ -440,12 +437,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A149" activePane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A157" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4387,6 +4384,190 @@
         <v>20</v>
       </c>
     </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>290</v>
+      </c>
+      <c r="D170">
+        <v>129</v>
+      </c>
+      <c r="E170">
+        <v>19</v>
+      </c>
+      <c r="G170">
+        <v>18</v>
+      </c>
+      <c r="I170">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B171" t="s">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>697</v>
+      </c>
+      <c r="D171">
+        <v>295</v>
+      </c>
+      <c r="E171">
+        <v>23</v>
+      </c>
+      <c r="G171">
+        <v>19</v>
+      </c>
+      <c r="I171">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>728</v>
+      </c>
+      <c r="D172">
+        <v>321</v>
+      </c>
+      <c r="E172">
+        <v>20</v>
+      </c>
+      <c r="G172">
+        <v>25</v>
+      </c>
+      <c r="I172">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>1230</v>
+      </c>
+      <c r="D173">
+        <v>636</v>
+      </c>
+      <c r="E173">
+        <v>58</v>
+      </c>
+      <c r="G173">
+        <v>86</v>
+      </c>
+      <c r="I173">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174">
+        <v>224</v>
+      </c>
+      <c r="D174">
+        <v>115</v>
+      </c>
+      <c r="E174">
+        <v>10</v>
+      </c>
+      <c r="G174">
+        <v>6</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>788</v>
+      </c>
+      <c r="D175">
+        <v>420</v>
+      </c>
+      <c r="E175">
+        <v>16</v>
+      </c>
+      <c r="G175">
+        <v>39</v>
+      </c>
+      <c r="I175">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>1644</v>
+      </c>
+      <c r="D176">
+        <v>917</v>
+      </c>
+      <c r="E176">
+        <v>74</v>
+      </c>
+      <c r="G176">
+        <v>93</v>
+      </c>
+      <c r="I176">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>1371</v>
+      </c>
+      <c r="D177">
+        <v>611</v>
+      </c>
+      <c r="E177">
+        <v>60</v>
+      </c>
+      <c r="G177">
+        <v>57</v>
+      </c>
+      <c r="I177">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -4398,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4415,19 +4596,19 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -4444,7 +4625,7 @@
         <v>4277</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,6 +4718,29 @@
       <c r="F6">
         <f t="shared" si="0"/>
         <v>0.29240957717778909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B7">
+        <v>28863</v>
+      </c>
+      <c r="C7">
+        <v>6972</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7" si="3">B7-B6</f>
+        <v>2050</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7" si="4">C7-C6</f>
+        <v>580</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="5">E7/D7</f>
+        <v>0.28292682926829266</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="23">
   <si>
     <t>Provincia</t>
   </si>
@@ -437,12 +437,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A157" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A163" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
+      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4568,6 +4568,190 @@
         <v>30</v>
       </c>
     </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>301</v>
+      </c>
+      <c r="D178">
+        <v>145</v>
+      </c>
+      <c r="E178">
+        <v>25</v>
+      </c>
+      <c r="G178">
+        <v>20</v>
+      </c>
+      <c r="I178">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B179" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>754</v>
+      </c>
+      <c r="D179">
+        <v>319</v>
+      </c>
+      <c r="E179">
+        <v>42</v>
+      </c>
+      <c r="G179">
+        <v>22</v>
+      </c>
+      <c r="I179">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180">
+        <v>782</v>
+      </c>
+      <c r="D180">
+        <v>338</v>
+      </c>
+      <c r="E180">
+        <v>32</v>
+      </c>
+      <c r="G180">
+        <v>25</v>
+      </c>
+      <c r="I180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>1292</v>
+      </c>
+      <c r="D181">
+        <v>681</v>
+      </c>
+      <c r="E181">
+        <v>68</v>
+      </c>
+      <c r="G181">
+        <v>93</v>
+      </c>
+      <c r="I181">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182">
+        <v>237</v>
+      </c>
+      <c r="D182">
+        <v>123</v>
+      </c>
+      <c r="E182">
+        <v>10</v>
+      </c>
+      <c r="G182">
+        <v>10</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>821</v>
+      </c>
+      <c r="D183">
+        <v>440</v>
+      </c>
+      <c r="E183">
+        <v>21</v>
+      </c>
+      <c r="G183">
+        <v>43</v>
+      </c>
+      <c r="I183">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184">
+        <v>1725</v>
+      </c>
+      <c r="D184">
+        <v>968</v>
+      </c>
+      <c r="E184">
+        <v>77</v>
+      </c>
+      <c r="G184">
+        <v>98</v>
+      </c>
+      <c r="I184">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>1462</v>
+      </c>
+      <c r="D185">
+        <v>659</v>
+      </c>
+      <c r="E185">
+        <v>63</v>
+      </c>
+      <c r="G185">
+        <v>65</v>
+      </c>
+      <c r="I185">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -4579,10 +4763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4743,6 +4927,29 @@
         <v>0.28292682926829266</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B8">
+        <v>30679</v>
+      </c>
+      <c r="C8">
+        <v>7374</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="6">B8-B7</f>
+        <v>1816</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8" si="7">C8-C7</f>
+        <v>402</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="8">E8/D8</f>
+        <v>0.22136563876651982</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F5">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="23">
   <si>
     <t>Provincia</t>
   </si>
@@ -437,12 +437,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A163" activePane="bottomLeft"/>
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="C186" sqref="C186"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A175"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4752,6 +4752,190 @@
         <v>33</v>
       </c>
     </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>319</v>
+      </c>
+      <c r="D186">
+        <v>146</v>
+      </c>
+      <c r="E186">
+        <v>27</v>
+      </c>
+      <c r="G186">
+        <v>22</v>
+      </c>
+      <c r="I186">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B187" t="s">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>796</v>
+      </c>
+      <c r="D187">
+        <v>345</v>
+      </c>
+      <c r="E187">
+        <v>48</v>
+      </c>
+      <c r="G187">
+        <v>27</v>
+      </c>
+      <c r="I187">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B188" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>892</v>
+      </c>
+      <c r="D188">
+        <v>365</v>
+      </c>
+      <c r="E188">
+        <v>33</v>
+      </c>
+      <c r="G188">
+        <v>30</v>
+      </c>
+      <c r="I188">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>1379</v>
+      </c>
+      <c r="D189">
+        <v>727</v>
+      </c>
+      <c r="E189">
+        <v>71</v>
+      </c>
+      <c r="G189">
+        <v>105</v>
+      </c>
+      <c r="I189">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>274</v>
+      </c>
+      <c r="D190">
+        <v>132</v>
+      </c>
+      <c r="E190">
+        <v>11</v>
+      </c>
+      <c r="G190">
+        <v>11</v>
+      </c>
+      <c r="I190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191">
+        <v>874</v>
+      </c>
+      <c r="D191">
+        <v>459</v>
+      </c>
+      <c r="E191">
+        <v>27</v>
+      </c>
+      <c r="G191">
+        <v>46</v>
+      </c>
+      <c r="I191">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>1800</v>
+      </c>
+      <c r="D192">
+        <v>1010</v>
+      </c>
+      <c r="E192">
+        <v>79</v>
+      </c>
+      <c r="G192">
+        <v>110</v>
+      </c>
+      <c r="I192">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>1535</v>
+      </c>
+      <c r="D193">
+        <v>712</v>
+      </c>
+      <c r="E193">
+        <v>68</v>
+      </c>
+      <c r="G193">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -4763,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,6 +5134,29 @@
         <v>0.22136563876651982</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B9">
+        <v>32320</v>
+      </c>
+      <c r="C9">
+        <v>7869</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="9">B9-B8</f>
+        <v>1641</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="10">C9-C8</f>
+        <v>495</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="11">E9/D9</f>
+        <v>0.3016453382084095</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F5">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="24">
   <si>
     <t>Provincia</t>
   </si>
@@ -56,19 +56,7 @@
     <t>Seguimiento</t>
   </si>
   <si>
-    <t>Ingresados</t>
-  </si>
-  <si>
-    <t>Altas</t>
-  </si>
-  <si>
-    <t>Curados</t>
-  </si>
-  <si>
     <t>Notas</t>
-  </si>
-  <si>
-    <t>UCI</t>
   </si>
   <si>
     <t>Fuente: https://twitter.com/JuanMa_Moreno</t>
@@ -84,6 +72,21 @@
   </si>
   <si>
     <t>Proporcion.Positivos</t>
+  </si>
+  <si>
+    <t>UCI.acum</t>
+  </si>
+  <si>
+    <t>Ingresados.neto</t>
+  </si>
+  <si>
+    <t>Ingresos.acum</t>
+  </si>
+  <si>
+    <t>Altas.acum</t>
+  </si>
+  <si>
+    <t>Curadas.acum</t>
   </si>
 </sst>
 </file>
@@ -437,12 +440,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J193"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A175"/>
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A172"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="J186" sqref="J186:J193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +459,7 @@
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -467,10 +470,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>12</v>
@@ -479,16 +482,19 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43902</v>
       </c>
@@ -499,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43902</v>
       </c>
@@ -510,7 +516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43902</v>
       </c>
@@ -521,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43902</v>
       </c>
@@ -532,7 +538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43902</v>
       </c>
@@ -543,7 +549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43902</v>
       </c>
@@ -554,7 +560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -565,7 +571,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43902</v>
       </c>
@@ -576,7 +582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43903</v>
       </c>
@@ -600,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43903</v>
       </c>
@@ -648,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43903</v>
       </c>
@@ -672,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43903</v>
       </c>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43903</v>
       </c>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43903</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43923</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43924</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43924</v>
       </c>
@@ -4614,7 +4620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43924</v>
       </c>
@@ -4637,7 +4643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43924</v>
       </c>
@@ -4660,7 +4666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43924</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43924</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43924</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43924</v>
       </c>
@@ -4752,7 +4758,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43925</v>
       </c>
@@ -4774,8 +4780,11 @@
       <c r="I186">
         <v>37</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43925</v>
       </c>
@@ -4797,8 +4806,11 @@
       <c r="I187">
         <v>62</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43925</v>
       </c>
@@ -4820,8 +4832,11 @@
       <c r="I188">
         <v>55</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43925</v>
       </c>
@@ -4843,8 +4858,11 @@
       <c r="I189">
         <v>47</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43925</v>
       </c>
@@ -4866,8 +4884,11 @@
       <c r="I190">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43925</v>
       </c>
@@ -4889,8 +4910,11 @@
       <c r="I191">
         <v>39</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43925</v>
       </c>
@@ -4912,8 +4936,11 @@
       <c r="I192">
         <v>162</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43925</v>
       </c>
@@ -4934,6 +4961,9 @@
       </c>
       <c r="I193">
         <v>53</v>
+      </c>
+      <c r="J193">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -4964,22 +4994,22 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4993,7 +5023,7 @@
         <v>4277</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="24">
   <si>
     <t>Provincia</t>
   </si>
@@ -440,12 +440,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A172"/>
-      <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="J186" sqref="J186:J193"/>
+      <pane ySplit="600" topLeftCell="A184" activePane="bottomLeft"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4966,6 +4966,190 @@
         <v>363</v>
       </c>
     </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>346</v>
+      </c>
+      <c r="D194">
+        <v>151</v>
+      </c>
+      <c r="E194">
+        <v>30</v>
+      </c>
+      <c r="G194">
+        <v>22</v>
+      </c>
+      <c r="I194">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>846</v>
+      </c>
+      <c r="D195">
+        <v>365</v>
+      </c>
+      <c r="E195">
+        <v>49</v>
+      </c>
+      <c r="G195">
+        <v>31</v>
+      </c>
+      <c r="I195">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B196" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>974</v>
+      </c>
+      <c r="D196">
+        <v>385</v>
+      </c>
+      <c r="E196">
+        <v>46</v>
+      </c>
+      <c r="G196">
+        <v>32</v>
+      </c>
+      <c r="I196">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>1477</v>
+      </c>
+      <c r="D197">
+        <v>787</v>
+      </c>
+      <c r="E197">
+        <v>84</v>
+      </c>
+      <c r="G197">
+        <v>114</v>
+      </c>
+      <c r="I197">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198">
+        <v>279</v>
+      </c>
+      <c r="D198">
+        <v>140</v>
+      </c>
+      <c r="E198">
+        <v>25</v>
+      </c>
+      <c r="G198">
+        <v>11</v>
+      </c>
+      <c r="I198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199">
+        <v>914</v>
+      </c>
+      <c r="D199">
+        <v>475</v>
+      </c>
+      <c r="E199">
+        <v>46</v>
+      </c>
+      <c r="G199">
+        <v>49</v>
+      </c>
+      <c r="I199">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200">
+        <v>1863</v>
+      </c>
+      <c r="D200">
+        <v>1057</v>
+      </c>
+      <c r="E200">
+        <v>94</v>
+      </c>
+      <c r="G200">
+        <v>118</v>
+      </c>
+      <c r="I200">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>1602</v>
+      </c>
+      <c r="D201">
+        <v>747</v>
+      </c>
+      <c r="E201">
+        <v>100</v>
+      </c>
+      <c r="G201">
+        <v>93</v>
+      </c>
+      <c r="I201">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -4977,10 +5161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5187,6 +5371,29 @@
         <v>0.3016453382084095</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B10">
+        <v>34096</v>
+      </c>
+      <c r="C10">
+        <v>8301</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10" si="12">B10-B9</f>
+        <v>1776</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10" si="13">C10-C9</f>
+        <v>432</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="14">E10/D10</f>
+        <v>0.24324324324324326</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F5">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="24">
   <si>
     <t>Provincia</t>
   </si>
@@ -440,12 +440,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A184" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A193" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
+      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5150,6 +5150,190 @@
         <v>82</v>
       </c>
     </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>371</v>
+      </c>
+      <c r="D202">
+        <v>153</v>
+      </c>
+      <c r="E202">
+        <v>32</v>
+      </c>
+      <c r="G202">
+        <v>23</v>
+      </c>
+      <c r="I202">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B203" t="s">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>862</v>
+      </c>
+      <c r="D203">
+        <v>367</v>
+      </c>
+      <c r="E203">
+        <v>56</v>
+      </c>
+      <c r="G203">
+        <v>31</v>
+      </c>
+      <c r="I203">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>1046</v>
+      </c>
+      <c r="D204">
+        <v>401</v>
+      </c>
+      <c r="E204">
+        <v>48</v>
+      </c>
+      <c r="G204">
+        <v>37</v>
+      </c>
+      <c r="I204">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
+      </c>
+      <c r="C205">
+        <v>1501</v>
+      </c>
+      <c r="D205">
+        <v>808</v>
+      </c>
+      <c r="E205">
+        <v>85</v>
+      </c>
+      <c r="G205">
+        <v>114</v>
+      </c>
+      <c r="I205">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206">
+        <v>288</v>
+      </c>
+      <c r="D206">
+        <v>143</v>
+      </c>
+      <c r="E206">
+        <v>25</v>
+      </c>
+      <c r="G206">
+        <v>16</v>
+      </c>
+      <c r="I206">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>934</v>
+      </c>
+      <c r="D207">
+        <v>490</v>
+      </c>
+      <c r="E207">
+        <v>46</v>
+      </c>
+      <c r="G207">
+        <v>52</v>
+      </c>
+      <c r="I207">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>1916</v>
+      </c>
+      <c r="D208">
+        <v>1087</v>
+      </c>
+      <c r="E208">
+        <v>96</v>
+      </c>
+      <c r="G208">
+        <v>121</v>
+      </c>
+      <c r="I208">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>1663</v>
+      </c>
+      <c r="D209">
+        <v>778</v>
+      </c>
+      <c r="E209">
+        <v>101</v>
+      </c>
+      <c r="G209">
+        <v>97</v>
+      </c>
+      <c r="I209">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -5161,10 +5345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:F10"/>
+      <selection activeCell="D10" sqref="D10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5394,6 +5578,29 @@
         <v>0.24324324324324326</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B11">
+        <v>34592</v>
+      </c>
+      <c r="C11">
+        <v>8581</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11" si="15">B11-B10</f>
+        <v>496</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="16">C11-C10</f>
+        <v>280</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="17">E11/D11</f>
+        <v>0.56451612903225812</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F5">
     <sortCondition ref="A1"/>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,18 +4,38 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
     <sheet name="test-Andal" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="distritos" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="distri" localSheetId="3">distritos!$A$1:$D$34</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="distri" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr sourceFile="C:\Users\FRS\Dropbox\Rcode\myRcode\researchprojects\COVID19-Andalucia\distri.txt">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -87,6 +107,219 @@
   </si>
   <si>
     <t>Curadas.acum</t>
+  </si>
+  <si>
+    <t>Distritos y Área de Gestión Sanitaria</t>
+  </si>
+  <si>
+    <t>Número de casos</t>
+  </si>
+  <si>
+    <t>D. Campo de Cadiz (AGS Campo de Gibraltar)</t>
+  </si>
+  <si>
+    <t>D. Sevilla Este (AGS Osuna)</t>
+  </si>
+  <si>
+    <t>D. Almería Norte (AGS Norte de Almería)</t>
+  </si>
+  <si>
+    <t>D. Córdoba Norte (AGS Norte de Córdoba)</t>
+  </si>
+  <si>
+    <t>D.La Vega (AGS Norte de Málaga)</t>
+  </si>
+  <si>
+    <t>D.Serranía de Málaga (AGS Serranía de Málaga)</t>
+  </si>
+  <si>
+    <t>D.Granada Sur (AGS Sur de Granada)</t>
+  </si>
+  <si>
+    <t>D.Axarquía (AGS Este de Málaga-Axarquía)</t>
+  </si>
+  <si>
+    <t>D.Granada Nordeste (AGS Nordeste de Granada)</t>
+  </si>
+  <si>
+    <t>D.Sierra de Huelva-Andévalo Central (AGS Norte de Huelva)</t>
+  </si>
+  <si>
+    <t>D. Córdoba Sur (AGS Sur de Córdoba)</t>
+  </si>
+  <si>
+    <t>D. Sevilla Sur (AGS Sur de Sevilla)</t>
+  </si>
+  <si>
+    <t>D. Aljarafe</t>
+  </si>
+  <si>
+    <t>D. Almería</t>
+  </si>
+  <si>
+    <t>D. Bahía de Cádiz-La Janda</t>
+  </si>
+  <si>
+    <t>D. Condado-Campiña</t>
+  </si>
+  <si>
+    <t>D. Córdoba</t>
+  </si>
+  <si>
+    <t>D. Costa del Sol</t>
+  </si>
+  <si>
+    <t>D. Granada</t>
+  </si>
+  <si>
+    <t>D.Guadalquivir</t>
+  </si>
+  <si>
+    <t>D.Huelva-Costa</t>
+  </si>
+  <si>
+    <t>D. Jaén</t>
+  </si>
+  <si>
+    <t>D.Jaén Nordeste (AGS Norte de Jaén)</t>
+  </si>
+  <si>
+    <t>D. Jaén Norte (AGS Norte de Jaén)</t>
+  </si>
+  <si>
+    <t>D. Jaén Sur</t>
+  </si>
+  <si>
+    <t>D. Jerez-Costa Noroeste (AGS Norte de Cádiz)</t>
+  </si>
+  <si>
+    <t>D.Málaga</t>
+  </si>
+  <si>
+    <t>D. Metropolitano de Granada</t>
+  </si>
+  <si>
+    <t>D. Poniente de Almería</t>
+  </si>
+  <si>
+    <t>D.Sevilla</t>
+  </si>
+  <si>
+    <t>D. Sevilla Norte</t>
+  </si>
+  <si>
+    <t>D. Sierra de Cádiz (AGS Norte de Cádiz)</t>
+  </si>
+  <si>
+    <t>D.Valle del Guadalhorce</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>CODIST</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>coprov</t>
+  </si>
+  <si>
+    <t>Aljarafe</t>
+  </si>
+  <si>
+    <t>Axarquía</t>
+  </si>
+  <si>
+    <t>Bahía de Cádiz-La Janda</t>
+  </si>
+  <si>
+    <t>Campo de Gibraltar</t>
+  </si>
+  <si>
+    <t>Condado-Campiña</t>
+  </si>
+  <si>
+    <t>Córdoba Norte</t>
+  </si>
+  <si>
+    <t>Córdoba Sur</t>
+  </si>
+  <si>
+    <t>Costa del Sol</t>
+  </si>
+  <si>
+    <t>Granada Nordeste</t>
+  </si>
+  <si>
+    <t>Granada Sur</t>
+  </si>
+  <si>
+    <t>Guadalquivir</t>
+  </si>
+  <si>
+    <t>Huelva-Costa</t>
+  </si>
+  <si>
+    <t>Jaén Nordeste</t>
+  </si>
+  <si>
+    <t>Jaén Norte</t>
+  </si>
+  <si>
+    <t>Jaén Sur</t>
+  </si>
+  <si>
+    <t>Jerez-Costa Noroeste</t>
+  </si>
+  <si>
+    <t>La Vega</t>
+  </si>
+  <si>
+    <t>Levante-Alto Almanzora</t>
+  </si>
+  <si>
+    <t>Metropolitano de Granada</t>
+  </si>
+  <si>
+    <t>Poniente de Almeria</t>
+  </si>
+  <si>
+    <t>Serranía</t>
+  </si>
+  <si>
+    <t>Sevilla Este</t>
+  </si>
+  <si>
+    <t>Sevilla Norte</t>
+  </si>
+  <si>
+    <t>Sevilla Sur</t>
+  </si>
+  <si>
+    <t>Sierra de Cádiz</t>
+  </si>
+  <si>
+    <t>Sierra de Huelva-Andévalo Central</t>
+  </si>
+  <si>
+    <t>Valle del Guadalhorce</t>
+  </si>
+  <si>
+    <t>casos</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>Sumar 112 AN?</t>
+  </si>
+  <si>
+    <t>notas</t>
   </si>
 </sst>
 </file>
@@ -113,12 +346,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -133,12 +372,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,6 +391,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="distri" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A193" activePane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A190" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
     </sheetView>
@@ -5608,4 +5852,1010 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3005</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3049</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3043</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F10">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3026</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F11">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3046</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F12">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3029</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3048</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3030</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3031</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F17">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3045</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F18">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3034</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F19">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3032</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F21">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3011</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3033</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F23">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3028</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F24">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3056</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3050</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F26">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3052</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3057</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F28">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3047</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3051</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F30">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F31">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3062</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F32">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3009</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F34">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -316,10 +316,10 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>Sumar 112 AN?</t>
-  </si>
-  <si>
     <t>notas</t>
+  </si>
+  <si>
+    <t>https://twitter.com/maxidomingo/status/1247501124980092938?s=20</t>
   </si>
 </sst>
 </file>
@@ -684,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K209"/>
+  <dimension ref="A1:K217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A190" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A199" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
+      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5578,6 +5578,190 @@
         <v>95</v>
       </c>
     </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>371</v>
+      </c>
+      <c r="D210">
+        <v>154</v>
+      </c>
+      <c r="E210">
+        <v>32</v>
+      </c>
+      <c r="G210">
+        <v>23</v>
+      </c>
+      <c r="I210">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B211" t="s">
+        <v>2</v>
+      </c>
+      <c r="C211">
+        <v>881</v>
+      </c>
+      <c r="D211">
+        <v>370</v>
+      </c>
+      <c r="E211">
+        <v>56</v>
+      </c>
+      <c r="G211">
+        <v>32</v>
+      </c>
+      <c r="I211">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212">
+        <v>1055</v>
+      </c>
+      <c r="D212">
+        <v>408</v>
+      </c>
+      <c r="E212">
+        <v>50</v>
+      </c>
+      <c r="G212">
+        <v>39</v>
+      </c>
+      <c r="I212">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213">
+        <v>1550</v>
+      </c>
+      <c r="D213">
+        <v>830</v>
+      </c>
+      <c r="E213">
+        <v>88</v>
+      </c>
+      <c r="G213">
+        <v>128</v>
+      </c>
+      <c r="I213">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214">
+        <v>292</v>
+      </c>
+      <c r="D214">
+        <v>147</v>
+      </c>
+      <c r="E214">
+        <v>25</v>
+      </c>
+      <c r="G214">
+        <v>16</v>
+      </c>
+      <c r="I214">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215">
+        <v>973</v>
+      </c>
+      <c r="D215">
+        <v>520</v>
+      </c>
+      <c r="E215">
+        <v>47</v>
+      </c>
+      <c r="G215">
+        <v>53</v>
+      </c>
+      <c r="I215">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216">
+        <v>1932</v>
+      </c>
+      <c r="D216">
+        <v>1095</v>
+      </c>
+      <c r="E216">
+        <v>97</v>
+      </c>
+      <c r="G216">
+        <v>125</v>
+      </c>
+      <c r="I216">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>1713</v>
+      </c>
+      <c r="D217">
+        <v>811</v>
+      </c>
+      <c r="E217">
+        <v>104</v>
+      </c>
+      <c r="G217">
+        <v>112</v>
+      </c>
+      <c r="I217">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -5589,10 +5773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5843,6 +6027,32 @@
       <c r="F11">
         <f t="shared" ref="F11" si="17">E11/D11</f>
         <v>0.56451612903225812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B12">
+        <v>35182</v>
+      </c>
+      <c r="C12">
+        <v>8767</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12" si="18">B12-B11</f>
+        <v>590</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12" si="19">C12-C11</f>
+        <v>186</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="20">E12/D12</f>
+        <v>0.31525423728813562</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5858,8 +6068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6140,10 +6350,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>112</v>
       </c>
     </row>
@@ -6156,8 +6366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6188,7 +6398,7 @@
         <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6491,7 +6701,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3031</v>
       </c>
@@ -6511,7 +6721,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3045</v>
       </c>
@@ -6531,7 +6741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3034</v>
       </c>
@@ -6551,7 +6761,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3001</v>
       </c>
@@ -6571,7 +6781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3032</v>
       </c>
@@ -6591,7 +6801,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3011</v>
       </c>
@@ -6611,7 +6821,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3033</v>
       </c>
@@ -6630,11 +6840,8 @@
       <c r="F23">
         <v>67</v>
       </c>
-      <c r="G23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3028</v>
       </c>
@@ -6654,7 +6861,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3056</v>
       </c>
@@ -6674,7 +6881,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3050</v>
       </c>
@@ -6694,7 +6901,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3052</v>
       </c>
@@ -6714,7 +6921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3057</v>
       </c>
@@ -6734,7 +6941,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3047</v>
       </c>
@@ -6754,7 +6961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3051</v>
       </c>
@@ -6774,7 +6981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3002</v>
       </c>
@@ -6794,7 +7001,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3062</v>
       </c>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
     <sheet name="test-Andal" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="distritos-raw" sheetId="3" r:id="rId3"/>
     <sheet name="distritos" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -319,7 +319,7 @@
     <t>notas</t>
   </si>
   <si>
-    <t>https://twitter.com/maxidomingo/status/1247501124980092938?s=20</t>
+    <t>https://twitter.com/AndaluciaJunta/status/1247466253683482624?s=20</t>
   </si>
 </sst>
 </file>
@@ -684,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K217"/>
+  <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A199" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="600" topLeftCell="A208" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
+      <selection pane="bottomLeft" activeCell="C223" sqref="C223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5762,6 +5762,190 @@
         <v>105</v>
       </c>
     </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>378</v>
+      </c>
+      <c r="D218">
+        <v>161</v>
+      </c>
+      <c r="E218">
+        <v>32</v>
+      </c>
+      <c r="G218">
+        <v>26</v>
+      </c>
+      <c r="I218">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>901</v>
+      </c>
+      <c r="D219">
+        <v>385</v>
+      </c>
+      <c r="E219">
+        <v>55</v>
+      </c>
+      <c r="G219">
+        <v>36</v>
+      </c>
+      <c r="I219">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220">
+        <v>1069</v>
+      </c>
+      <c r="D220">
+        <v>419</v>
+      </c>
+      <c r="E220">
+        <v>50</v>
+      </c>
+      <c r="G220">
+        <v>42</v>
+      </c>
+      <c r="I220">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
+      </c>
+      <c r="C221">
+        <v>1600</v>
+      </c>
+      <c r="D221">
+        <v>844</v>
+      </c>
+      <c r="E221">
+        <v>93</v>
+      </c>
+      <c r="G221">
+        <v>138</v>
+      </c>
+      <c r="I221">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B222" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222">
+        <v>296</v>
+      </c>
+      <c r="D222">
+        <v>154</v>
+      </c>
+      <c r="E222">
+        <v>25</v>
+      </c>
+      <c r="G222">
+        <v>20</v>
+      </c>
+      <c r="I222">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <v>990</v>
+      </c>
+      <c r="D223">
+        <v>534</v>
+      </c>
+      <c r="E223">
+        <v>49</v>
+      </c>
+      <c r="G223">
+        <v>72</v>
+      </c>
+      <c r="I223">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224">
+        <v>2006</v>
+      </c>
+      <c r="D224">
+        <v>1130</v>
+      </c>
+      <c r="E224">
+        <v>107</v>
+      </c>
+      <c r="G224">
+        <v>140</v>
+      </c>
+      <c r="I224">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>1757</v>
+      </c>
+      <c r="D225">
+        <v>836</v>
+      </c>
+      <c r="E225">
+        <v>109</v>
+      </c>
+      <c r="G225">
+        <v>131</v>
+      </c>
+      <c r="I225">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -5773,10 +5957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6053,6 +6237,29 @@
       </c>
       <c r="G12" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B13">
+        <v>36635</v>
+      </c>
+      <c r="C13">
+        <v>8997</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13" si="21">B13-B12</f>
+        <v>1453</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13" si="22">C13-C12</f>
+        <v>230</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="23">E13/D13</f>
+        <v>0.15829318651066759</v>
       </c>
     </row>
   </sheetData>
@@ -6068,7 +6275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -684,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K225"/>
+  <dimension ref="A1:K233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A208" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A214" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C223" sqref="C223"/>
+      <selection pane="bottomLeft" activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5946,6 +5946,190 @@
         <v>158</v>
       </c>
     </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>395</v>
+      </c>
+      <c r="D226">
+        <v>168</v>
+      </c>
+      <c r="E226">
+        <v>32</v>
+      </c>
+      <c r="G226">
+        <v>27</v>
+      </c>
+      <c r="I226">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B227" t="s">
+        <v>2</v>
+      </c>
+      <c r="C227">
+        <v>915</v>
+      </c>
+      <c r="D227">
+        <v>403</v>
+      </c>
+      <c r="E227">
+        <v>58</v>
+      </c>
+      <c r="G227">
+        <v>45</v>
+      </c>
+      <c r="I227">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B228" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>1084</v>
+      </c>
+      <c r="D228">
+        <v>424</v>
+      </c>
+      <c r="E228">
+        <v>52</v>
+      </c>
+      <c r="G228">
+        <v>45</v>
+      </c>
+      <c r="I228">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4</v>
+      </c>
+      <c r="C229">
+        <v>1639</v>
+      </c>
+      <c r="D229">
+        <v>865</v>
+      </c>
+      <c r="E229">
+        <v>95</v>
+      </c>
+      <c r="G229">
+        <v>142</v>
+      </c>
+      <c r="I229">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+      <c r="C230">
+        <v>308</v>
+      </c>
+      <c r="D230">
+        <v>159</v>
+      </c>
+      <c r="E230">
+        <v>25</v>
+      </c>
+      <c r="G230">
+        <v>21</v>
+      </c>
+      <c r="I230">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>1021</v>
+      </c>
+      <c r="D231">
+        <v>548</v>
+      </c>
+      <c r="E231">
+        <v>51</v>
+      </c>
+      <c r="G231">
+        <v>84</v>
+      </c>
+      <c r="I231">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232">
+        <v>2074</v>
+      </c>
+      <c r="D232">
+        <v>1158</v>
+      </c>
+      <c r="E232">
+        <v>111</v>
+      </c>
+      <c r="G232">
+        <v>147</v>
+      </c>
+      <c r="I232">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233">
+        <v>1825</v>
+      </c>
+      <c r="D233">
+        <v>874</v>
+      </c>
+      <c r="E233">
+        <v>114</v>
+      </c>
+      <c r="G233">
+        <v>141</v>
+      </c>
+      <c r="I233">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -5957,10 +6141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6260,6 +6444,29 @@
       <c r="F13">
         <f t="shared" ref="F13" si="23">E13/D13</f>
         <v>0.15829318651066759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B14">
+        <v>38223</v>
+      </c>
+      <c r="C14">
+        <v>9261</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14" si="24">B14-B13</f>
+        <v>1588</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14" si="25">C14-C13</f>
+        <v>264</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="26">E14/D14</f>
+        <v>0.16624685138539042</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -684,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K233"/>
+  <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A214" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A223" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="B231" sqref="B231"/>
+      <selection pane="bottomLeft" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6130,6 +6130,190 @@
         <v>191</v>
       </c>
     </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>400</v>
+      </c>
+      <c r="D234">
+        <v>169</v>
+      </c>
+      <c r="E234">
+        <v>33</v>
+      </c>
+      <c r="G234">
+        <v>29</v>
+      </c>
+      <c r="I234">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B235" t="s">
+        <v>2</v>
+      </c>
+      <c r="C235">
+        <v>929</v>
+      </c>
+      <c r="D235">
+        <v>413</v>
+      </c>
+      <c r="E235">
+        <v>64</v>
+      </c>
+      <c r="G235">
+        <v>49</v>
+      </c>
+      <c r="I235">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B236" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236">
+        <v>1116</v>
+      </c>
+      <c r="D236">
+        <v>439</v>
+      </c>
+      <c r="E236">
+        <v>54</v>
+      </c>
+      <c r="G236">
+        <v>48</v>
+      </c>
+      <c r="I236">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237">
+        <v>1686</v>
+      </c>
+      <c r="D237">
+        <v>890</v>
+      </c>
+      <c r="E237">
+        <v>102</v>
+      </c>
+      <c r="G237">
+        <v>148</v>
+      </c>
+      <c r="I237">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238">
+        <v>310</v>
+      </c>
+      <c r="D238">
+        <v>165</v>
+      </c>
+      <c r="E238">
+        <v>26</v>
+      </c>
+      <c r="G238">
+        <v>21</v>
+      </c>
+      <c r="I238">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239">
+        <v>1055</v>
+      </c>
+      <c r="D239">
+        <v>557</v>
+      </c>
+      <c r="E239">
+        <v>56</v>
+      </c>
+      <c r="G239">
+        <v>92</v>
+      </c>
+      <c r="I239">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240">
+        <v>2127</v>
+      </c>
+      <c r="D240">
+        <v>1182</v>
+      </c>
+      <c r="E240">
+        <v>123</v>
+      </c>
+      <c r="G240">
+        <v>154</v>
+      </c>
+      <c r="I240">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241">
+        <v>1887</v>
+      </c>
+      <c r="D241">
+        <v>900</v>
+      </c>
+      <c r="E241">
+        <v>124</v>
+      </c>
+      <c r="G241">
+        <v>150</v>
+      </c>
+      <c r="I241">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -6141,10 +6325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6467,6 +6651,52 @@
       <c r="F14">
         <f t="shared" ref="F14" si="26">E14/D14</f>
         <v>0.16624685138539042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B15">
+        <v>39820</v>
+      </c>
+      <c r="C15">
+        <v>9510</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D16" si="27">B15-B14</f>
+        <v>1597</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E16" si="28">C15-C14</f>
+        <v>249</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F16" si="29">E15/D15</f>
+        <v>0.15591734502191609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B16">
+        <v>40628</v>
+      </c>
+      <c r="C16">
+        <v>9712</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="27"/>
+        <v>808</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="28"/>
+        <v>202</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="29"/>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -684,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:K249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A223" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A235" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D241" sqref="D241"/>
+      <selection pane="bottomLeft" activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6312,6 +6312,190 @@
       </c>
       <c r="I241">
         <v>200</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>403</v>
+      </c>
+      <c r="D242">
+        <v>171</v>
+      </c>
+      <c r="E242">
+        <v>33</v>
+      </c>
+      <c r="G242">
+        <v>32</v>
+      </c>
+      <c r="I242">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>943</v>
+      </c>
+      <c r="D243">
+        <v>421</v>
+      </c>
+      <c r="E243">
+        <v>65</v>
+      </c>
+      <c r="G243">
+        <v>52</v>
+      </c>
+      <c r="I243">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244">
+        <v>1136</v>
+      </c>
+      <c r="D244">
+        <v>449</v>
+      </c>
+      <c r="E244">
+        <v>55</v>
+      </c>
+      <c r="G244">
+        <v>49</v>
+      </c>
+      <c r="I244">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
+      <c r="C245">
+        <v>1725</v>
+      </c>
+      <c r="D245">
+        <v>915</v>
+      </c>
+      <c r="E245">
+        <v>102</v>
+      </c>
+      <c r="G245">
+        <v>157</v>
+      </c>
+      <c r="I245">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B246" t="s">
+        <v>11</v>
+      </c>
+      <c r="C246">
+        <v>318</v>
+      </c>
+      <c r="D246">
+        <v>170</v>
+      </c>
+      <c r="E246">
+        <v>27</v>
+      </c>
+      <c r="G246">
+        <v>22</v>
+      </c>
+      <c r="I246">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <v>1097</v>
+      </c>
+      <c r="D247">
+        <v>561</v>
+      </c>
+      <c r="E247">
+        <v>57</v>
+      </c>
+      <c r="G247">
+        <v>96</v>
+      </c>
+      <c r="I247">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248">
+        <v>2143</v>
+      </c>
+      <c r="D248">
+        <v>1199</v>
+      </c>
+      <c r="E248">
+        <v>137</v>
+      </c>
+      <c r="G248">
+        <v>170</v>
+      </c>
+      <c r="I248">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249">
+        <v>1947</v>
+      </c>
+      <c r="D249">
+        <v>922</v>
+      </c>
+      <c r="E249">
+        <v>126</v>
+      </c>
+      <c r="G249">
+        <v>159</v>
+      </c>
+      <c r="I249">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -684,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K249"/>
+  <dimension ref="A1:K257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A235" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A238" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D249" sqref="D249"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251:A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6498,6 +6498,190 @@
         <v>221</v>
       </c>
     </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>409</v>
+      </c>
+      <c r="D250">
+        <v>176</v>
+      </c>
+      <c r="E250">
+        <v>35</v>
+      </c>
+      <c r="G250">
+        <v>36</v>
+      </c>
+      <c r="I250">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2</v>
+      </c>
+      <c r="C251">
+        <v>971</v>
+      </c>
+      <c r="D251">
+        <v>436</v>
+      </c>
+      <c r="E251">
+        <v>70</v>
+      </c>
+      <c r="G251">
+        <v>59</v>
+      </c>
+      <c r="I251">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B252" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252">
+        <v>1153</v>
+      </c>
+      <c r="D252">
+        <v>453</v>
+      </c>
+      <c r="E252">
+        <v>56</v>
+      </c>
+      <c r="G252">
+        <v>56</v>
+      </c>
+      <c r="I252">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253">
+        <v>1772</v>
+      </c>
+      <c r="D253">
+        <v>943</v>
+      </c>
+      <c r="E253">
+        <v>103</v>
+      </c>
+      <c r="G253">
+        <v>165</v>
+      </c>
+      <c r="I253">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254">
+        <v>328</v>
+      </c>
+      <c r="D254">
+        <v>169</v>
+      </c>
+      <c r="E254">
+        <v>27</v>
+      </c>
+      <c r="G254">
+        <v>26</v>
+      </c>
+      <c r="I254">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <v>1136</v>
+      </c>
+      <c r="D255">
+        <v>579</v>
+      </c>
+      <c r="E255">
+        <v>59</v>
+      </c>
+      <c r="G255">
+        <v>105</v>
+      </c>
+      <c r="I255">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256">
+        <v>2203</v>
+      </c>
+      <c r="D256">
+        <v>1239</v>
+      </c>
+      <c r="E256">
+        <v>142</v>
+      </c>
+      <c r="G256">
+        <v>183</v>
+      </c>
+      <c r="I256">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>2034</v>
+      </c>
+      <c r="D257">
+        <v>955</v>
+      </c>
+      <c r="E257">
+        <v>127</v>
+      </c>
+      <c r="G257">
+        <v>169</v>
+      </c>
+      <c r="I257">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -6509,10 +6693,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D16" sqref="D16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6881,6 +7065,29 @@
       <c r="F16">
         <f t="shared" si="29"/>
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B17">
+        <v>41227</v>
+      </c>
+      <c r="C17">
+        <v>10006</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17" si="30">B17-B16</f>
+        <v>599</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="31">C17-C16</f>
+        <v>294</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="32">E17/D17</f>
+        <v>0.49081803005008345</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -684,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K257"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A238" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A253" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A251" sqref="A251:A257"/>
+      <selection pane="bottomLeft" activeCell="A266" sqref="A266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6682,6 +6682,190 @@
         <v>247</v>
       </c>
     </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>413</v>
+      </c>
+      <c r="D258">
+        <v>176</v>
+      </c>
+      <c r="E258">
+        <v>34</v>
+      </c>
+      <c r="G258">
+        <v>35</v>
+      </c>
+      <c r="I258">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B259" t="s">
+        <v>2</v>
+      </c>
+      <c r="C259">
+        <v>990</v>
+      </c>
+      <c r="D259">
+        <v>439</v>
+      </c>
+      <c r="E259">
+        <v>70</v>
+      </c>
+      <c r="G259">
+        <v>60</v>
+      </c>
+      <c r="I259">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B260" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260">
+        <v>1169</v>
+      </c>
+      <c r="D260">
+        <v>456</v>
+      </c>
+      <c r="E260">
+        <v>56</v>
+      </c>
+      <c r="G260">
+        <v>56</v>
+      </c>
+      <c r="I260">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>1832</v>
+      </c>
+      <c r="D261">
+        <v>957</v>
+      </c>
+      <c r="E261">
+        <v>104</v>
+      </c>
+      <c r="G261">
+        <v>170</v>
+      </c>
+      <c r="I261">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262">
+        <v>331</v>
+      </c>
+      <c r="D262">
+        <v>171</v>
+      </c>
+      <c r="E262">
+        <v>27</v>
+      </c>
+      <c r="G262">
+        <v>27</v>
+      </c>
+      <c r="I262">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <v>1169</v>
+      </c>
+      <c r="D263">
+        <v>590</v>
+      </c>
+      <c r="E263">
+        <v>59</v>
+      </c>
+      <c r="G263">
+        <v>107</v>
+      </c>
+      <c r="I263">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264">
+        <v>2217</v>
+      </c>
+      <c r="D264">
+        <v>1240</v>
+      </c>
+      <c r="E264">
+        <v>143</v>
+      </c>
+      <c r="G264">
+        <v>183</v>
+      </c>
+      <c r="I264">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265">
+        <v>2066</v>
+      </c>
+      <c r="D265">
+        <v>964</v>
+      </c>
+      <c r="E265">
+        <v>128</v>
+      </c>
+      <c r="G265">
+        <v>177</v>
+      </c>
+      <c r="I265">
+        <v>275</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -6693,10 +6877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7088,6 +7272,52 @@
       <c r="F17">
         <f t="shared" ref="F17" si="32">E17/D17</f>
         <v>0.49081803005008345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B18">
+        <v>41749</v>
+      </c>
+      <c r="C18">
+        <v>10187</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="33">B18-B17</f>
+        <v>522</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="34">C18-C17</f>
+        <v>181</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="35">E18/D18</f>
+        <v>0.34674329501915707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B19">
+        <v>42363</v>
+      </c>
+      <c r="C19">
+        <v>10306</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19" si="36">B19-B18</f>
+        <v>614</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19" si="37">C19-C18</f>
+        <v>119</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19" si="38">E19/D19</f>
+        <v>0.19381107491856678</v>
       </c>
     </row>
   </sheetData>
@@ -7401,7 +7631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -687,9 +687,9 @@
   <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A253" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A220" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A266" sqref="A266"/>
+      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4447,7 +4447,7 @@
         <v>89</v>
       </c>
       <c r="I161">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -5799,7 +5799,7 @@
         <v>385</v>
       </c>
       <c r="E219">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G219">
         <v>36</v>
@@ -5851,7 +5851,7 @@
         <v>138</v>
       </c>
       <c r="I221">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -6058,7 +6058,7 @@
         <v>21</v>
       </c>
       <c r="I230">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -6417,7 +6417,7 @@
         <v>318</v>
       </c>
       <c r="D246">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E246">
         <v>27</v>
@@ -6512,10 +6512,10 @@
         <v>176</v>
       </c>
       <c r="E250">
+        <v>34</v>
+      </c>
+      <c r="G250">
         <v>35</v>
-      </c>
-      <c r="G250">
-        <v>36</v>
       </c>
       <c r="I250">
         <v>85</v>
@@ -6879,8 +6879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7631,7 +7631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="95">
   <si>
     <t>Provincia</t>
   </si>
@@ -684,12 +684,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K265"/>
+  <dimension ref="A1:K273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A220" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A256" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
+      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6864,6 +6864,190 @@
       </c>
       <c r="I265">
         <v>275</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>414</v>
+      </c>
+      <c r="D266">
+        <v>176</v>
+      </c>
+      <c r="E266">
+        <v>34</v>
+      </c>
+      <c r="G266">
+        <v>38</v>
+      </c>
+      <c r="I266">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>1001</v>
+      </c>
+      <c r="D267">
+        <v>452</v>
+      </c>
+      <c r="E267">
+        <v>70</v>
+      </c>
+      <c r="G267">
+        <v>60</v>
+      </c>
+      <c r="I267">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B268" t="s">
+        <v>3</v>
+      </c>
+      <c r="C268">
+        <v>1190</v>
+      </c>
+      <c r="D268">
+        <v>462</v>
+      </c>
+      <c r="E268">
+        <v>57</v>
+      </c>
+      <c r="G268">
+        <v>58</v>
+      </c>
+      <c r="I268">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269">
+        <v>1864</v>
+      </c>
+      <c r="D269">
+        <v>973</v>
+      </c>
+      <c r="E269">
+        <v>110</v>
+      </c>
+      <c r="G269">
+        <v>180</v>
+      </c>
+      <c r="I269">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B270" t="s">
+        <v>11</v>
+      </c>
+      <c r="C270">
+        <v>337</v>
+      </c>
+      <c r="D270">
+        <v>177</v>
+      </c>
+      <c r="E270">
+        <v>27</v>
+      </c>
+      <c r="G270">
+        <v>27</v>
+      </c>
+      <c r="I270">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271">
+        <v>1177</v>
+      </c>
+      <c r="D271">
+        <v>590</v>
+      </c>
+      <c r="E271">
+        <v>59</v>
+      </c>
+      <c r="G271">
+        <v>111</v>
+      </c>
+      <c r="I271">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272">
+        <v>2240</v>
+      </c>
+      <c r="D272">
+        <v>1253</v>
+      </c>
+      <c r="E272">
+        <v>145</v>
+      </c>
+      <c r="G272">
+        <v>184</v>
+      </c>
+      <c r="I272">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>2083</v>
+      </c>
+      <c r="D273">
+        <v>971</v>
+      </c>
+      <c r="E273">
+        <v>129</v>
+      </c>
+      <c r="G273">
+        <v>178</v>
+      </c>
+      <c r="I273">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="96">
   <si>
     <t>Provincia</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>https://twitter.com/AndaluciaJunta/status/1247466253683482624?s=20</t>
+  </si>
+  <si>
+    <t>Incluye positivos en test rapidos (a diferencia de Ministerio): https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/234496.html</t>
   </si>
 </sst>
 </file>
@@ -684,12 +687,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K273"/>
+  <dimension ref="A1:K281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A256" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A262" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D273" sqref="D273"/>
+      <selection pane="bottomLeft" activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6659,7 +6662,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>43933</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>43934</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>43934</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>43934</v>
       </c>
@@ -6751,7 +6754,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>43934</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>43934</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>43934</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>43934</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>43934</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>43935</v>
       </c>
@@ -6888,8 +6891,11 @@
       <c r="I266">
         <v>96</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K266" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>43935</v>
       </c>
@@ -6912,7 +6918,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>43935</v>
       </c>
@@ -6935,7 +6941,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>43935</v>
       </c>
@@ -6958,7 +6964,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>43935</v>
       </c>
@@ -6981,7 +6987,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>43935</v>
       </c>
@@ -7004,7 +7010,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>43935</v>
       </c>
@@ -7048,6 +7054,190 @@
       </c>
       <c r="I273">
         <v>294</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>416</v>
+      </c>
+      <c r="D274">
+        <v>179</v>
+      </c>
+      <c r="E274">
+        <v>34</v>
+      </c>
+      <c r="G274">
+        <v>38</v>
+      </c>
+      <c r="I274">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>1044</v>
+      </c>
+      <c r="D275">
+        <v>455</v>
+      </c>
+      <c r="E275">
+        <v>71</v>
+      </c>
+      <c r="G275">
+        <v>62</v>
+      </c>
+      <c r="I275">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B276" t="s">
+        <v>3</v>
+      </c>
+      <c r="C276">
+        <v>1211</v>
+      </c>
+      <c r="D276">
+        <v>468</v>
+      </c>
+      <c r="E276">
+        <v>61</v>
+      </c>
+      <c r="G276">
+        <v>59</v>
+      </c>
+      <c r="I276">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4</v>
+      </c>
+      <c r="C277">
+        <v>1911</v>
+      </c>
+      <c r="D277">
+        <v>994</v>
+      </c>
+      <c r="E277">
+        <v>115</v>
+      </c>
+      <c r="G277">
+        <v>181</v>
+      </c>
+      <c r="I277">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278">
+        <v>344</v>
+      </c>
+      <c r="D278">
+        <v>185</v>
+      </c>
+      <c r="E278">
+        <v>30</v>
+      </c>
+      <c r="G278">
+        <v>27</v>
+      </c>
+      <c r="I278">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279">
+        <v>1189</v>
+      </c>
+      <c r="D279">
+        <v>600</v>
+      </c>
+      <c r="E279">
+        <v>62</v>
+      </c>
+      <c r="G279">
+        <v>115</v>
+      </c>
+      <c r="I279">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280">
+        <v>2321</v>
+      </c>
+      <c r="D280">
+        <v>1284</v>
+      </c>
+      <c r="E280">
+        <v>156</v>
+      </c>
+      <c r="G280">
+        <v>201</v>
+      </c>
+      <c r="I280">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281">
+        <v>2159</v>
+      </c>
+      <c r="D281">
+        <v>982</v>
+      </c>
+      <c r="E281">
+        <v>136</v>
+      </c>
+      <c r="G281">
+        <v>182</v>
+      </c>
+      <c r="I281">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -7061,10 +7251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7435,7 +7625,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43933</v>
       </c>
@@ -7458,7 +7648,7 @@
         <v>0.49081803005008345</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43934</v>
       </c>
@@ -7481,7 +7671,7 @@
         <v>0.34674329501915707</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43935</v>
       </c>
@@ -7502,6 +7692,32 @@
       <c r="F19">
         <f t="shared" ref="F19" si="38">E19/D19</f>
         <v>0.19381107491856678</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B20">
+        <v>43625</v>
+      </c>
+      <c r="C20">
+        <v>10595</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="39">B20-B19</f>
+        <v>1262</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20" si="40">C20-C19</f>
+        <v>289</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="41">E20/D20</f>
+        <v>0.22900158478605387</v>
       </c>
     </row>
   </sheetData>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -4,13 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
     <sheet name="test-Andal" sheetId="2" r:id="rId2"/>
     <sheet name="distritos-raw" sheetId="3" r:id="rId3"/>
     <sheet name="distritos" sheetId="4" r:id="rId4"/>
+    <sheet name="Pred_metadata" sheetId="6" r:id="rId5"/>
+    <sheet name="Pred_And_Confirmados" sheetId="5" r:id="rId6"/>
+    <sheet name="Pred_And_Fallecidos" sheetId="7" r:id="rId7"/>
+    <sheet name="Pred_And_Hospitalizados" sheetId="8" r:id="rId8"/>
+    <sheet name="Pred_And_Nuevos" sheetId="9" r:id="rId9"/>
+    <sheet name="Pred_And_UCI" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="distri" localSheetId="3">distritos!$A$1:$D$34</definedName>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="109">
   <si>
     <t>Provincia</t>
   </si>
@@ -323,6 +329,45 @@
   </si>
   <si>
     <t>Incluye positivos en test rapidos (a diferencia de Ministerio): https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/234496.html</t>
+  </si>
+  <si>
+    <t>CP01</t>
+  </si>
+  <si>
+    <t>CP02</t>
+  </si>
+  <si>
+    <t>CP03</t>
+  </si>
+  <si>
+    <t>CP04</t>
+  </si>
+  <si>
+    <t>CP05</t>
+  </si>
+  <si>
+    <t>CP06</t>
+  </si>
+  <si>
+    <t>CP07</t>
+  </si>
+  <si>
+    <t>npre</t>
+  </si>
+  <si>
+    <t>nphis</t>
+  </si>
+  <si>
+    <t>ndhis</t>
+  </si>
+  <si>
+    <t>CP01 :Simple Average, CP02: Median, CP03: Trimmed Mean, CP04: Winsored Mean, CP05: Bates/Granger(mod), CP06: Lowess, CP07: Loess+Bates/Granger(mod), npre: Número de predictores individuales, nphis: Número de predictores individuales en el histórico para el entrenamiento de CP06 y CP08, ndhis: Número (máximo) de observaciones en el histórico</t>
+  </si>
+  <si>
+    <t>fecha-captura</t>
+  </si>
+  <si>
+    <t>row</t>
   </si>
 </sst>
 </file>
@@ -687,12 +732,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K281"/>
+  <dimension ref="A1:K289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A262" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A274" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="B280" sqref="B280"/>
+      <selection pane="bottomLeft" activeCell="B289" sqref="B282:B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7240,6 +7285,190 @@
         <v>327</v>
       </c>
     </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>428</v>
+      </c>
+      <c r="D282">
+        <v>181</v>
+      </c>
+      <c r="E282">
+        <v>35</v>
+      </c>
+      <c r="G282">
+        <v>38</v>
+      </c>
+      <c r="I282">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>1072</v>
+      </c>
+      <c r="D283">
+        <v>460</v>
+      </c>
+      <c r="E283">
+        <v>71</v>
+      </c>
+      <c r="G283">
+        <v>68</v>
+      </c>
+      <c r="I283">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B284" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284">
+        <v>1247</v>
+      </c>
+      <c r="D284">
+        <v>479</v>
+      </c>
+      <c r="E284">
+        <v>62</v>
+      </c>
+      <c r="G284">
+        <v>63</v>
+      </c>
+      <c r="I284">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>1926</v>
+      </c>
+      <c r="D285">
+        <v>1004</v>
+      </c>
+      <c r="E285">
+        <v>117</v>
+      </c>
+      <c r="G285">
+        <v>187</v>
+      </c>
+      <c r="I285">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>347</v>
+      </c>
+      <c r="D286">
+        <v>200</v>
+      </c>
+      <c r="E286">
+        <v>30</v>
+      </c>
+      <c r="G286">
+        <v>28</v>
+      </c>
+      <c r="I286">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287">
+        <v>1201</v>
+      </c>
+      <c r="D287">
+        <v>608</v>
+      </c>
+      <c r="E287">
+        <v>62</v>
+      </c>
+      <c r="G287">
+        <v>128</v>
+      </c>
+      <c r="I287">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288">
+        <v>2363</v>
+      </c>
+      <c r="D288">
+        <v>1302</v>
+      </c>
+      <c r="E288">
+        <v>156</v>
+      </c>
+      <c r="G288">
+        <v>211</v>
+      </c>
+      <c r="I288">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289">
+        <v>2223</v>
+      </c>
+      <c r="D289">
+        <v>992</v>
+      </c>
+      <c r="E289">
+        <v>138</v>
+      </c>
+      <c r="G289">
+        <v>189</v>
+      </c>
+      <c r="I289">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G57">
     <sortCondition ref="A1"/>
@@ -7249,12 +7478,361 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C2">
+        <v>650</v>
+      </c>
+      <c r="D2">
+        <v>646</v>
+      </c>
+      <c r="E2">
+        <v>649</v>
+      </c>
+      <c r="F2">
+        <v>653</v>
+      </c>
+      <c r="G2">
+        <v>648</v>
+      </c>
+      <c r="H2">
+        <v>651</v>
+      </c>
+      <c r="I2">
+        <v>649</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C3">
+        <v>661</v>
+      </c>
+      <c r="D3">
+        <v>660</v>
+      </c>
+      <c r="E3">
+        <v>659</v>
+      </c>
+      <c r="F3">
+        <v>662</v>
+      </c>
+      <c r="G3">
+        <v>660</v>
+      </c>
+      <c r="H3">
+        <v>658</v>
+      </c>
+      <c r="I3">
+        <v>659</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C4">
+        <v>671</v>
+      </c>
+      <c r="D4">
+        <v>668</v>
+      </c>
+      <c r="E4">
+        <v>666</v>
+      </c>
+      <c r="F4">
+        <v>668</v>
+      </c>
+      <c r="G4">
+        <v>669</v>
+      </c>
+      <c r="H4">
+        <v>664</v>
+      </c>
+      <c r="I4">
+        <v>669</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C5">
+        <v>681</v>
+      </c>
+      <c r="D5">
+        <v>677</v>
+      </c>
+      <c r="E5">
+        <v>672</v>
+      </c>
+      <c r="F5">
+        <v>673</v>
+      </c>
+      <c r="G5">
+        <v>678</v>
+      </c>
+      <c r="H5">
+        <v>666</v>
+      </c>
+      <c r="I5">
+        <v>677</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C6">
+        <v>691</v>
+      </c>
+      <c r="D6">
+        <v>685</v>
+      </c>
+      <c r="E6">
+        <v>678</v>
+      </c>
+      <c r="F6">
+        <v>677</v>
+      </c>
+      <c r="G6">
+        <v>688</v>
+      </c>
+      <c r="H6">
+        <v>672</v>
+      </c>
+      <c r="I6">
+        <v>691</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C7">
+        <v>716</v>
+      </c>
+      <c r="D7">
+        <v>702</v>
+      </c>
+      <c r="E7">
+        <v>697</v>
+      </c>
+      <c r="F7">
+        <v>695</v>
+      </c>
+      <c r="G7">
+        <v>710</v>
+      </c>
+      <c r="H7">
+        <v>681</v>
+      </c>
+      <c r="I7">
+        <v>706</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C8">
+        <v>730</v>
+      </c>
+      <c r="D8">
+        <v>711</v>
+      </c>
+      <c r="E8">
+        <v>702</v>
+      </c>
+      <c r="F8">
+        <v>699</v>
+      </c>
+      <c r="G8">
+        <v>721</v>
+      </c>
+      <c r="H8">
+        <v>690</v>
+      </c>
+      <c r="I8">
+        <v>722</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D20" sqref="D20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7718,6 +8296,29 @@
       <c r="F20">
         <f t="shared" ref="F20" si="41">E20/D20</f>
         <v>0.22900158478605387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B21">
+        <v>44598</v>
+      </c>
+      <c r="C21">
+        <v>10807</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="42">B21-B20</f>
+        <v>973</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="43">C21-C20</f>
+        <v>212</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="44">E21/D21</f>
+        <v>0.21788283658787255</v>
       </c>
     </row>
   </sheetData>
@@ -8730,4 +9331,1420 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C2">
+        <v>10334</v>
+      </c>
+      <c r="D2">
+        <v>10282</v>
+      </c>
+      <c r="E2">
+        <v>10316</v>
+      </c>
+      <c r="F2">
+        <v>10322</v>
+      </c>
+      <c r="G2">
+        <v>10331</v>
+      </c>
+      <c r="H2">
+        <v>10343</v>
+      </c>
+      <c r="I2">
+        <v>10334</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C3">
+        <v>10450</v>
+      </c>
+      <c r="D3">
+        <v>10375</v>
+      </c>
+      <c r="E3">
+        <v>10436</v>
+      </c>
+      <c r="F3">
+        <v>10442</v>
+      </c>
+      <c r="G3">
+        <v>10445</v>
+      </c>
+      <c r="H3">
+        <v>10426</v>
+      </c>
+      <c r="I3">
+        <v>10438</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C4">
+        <v>10525</v>
+      </c>
+      <c r="D4">
+        <v>10426</v>
+      </c>
+      <c r="E4">
+        <v>10493</v>
+      </c>
+      <c r="F4">
+        <v>10497</v>
+      </c>
+      <c r="G4">
+        <v>10523</v>
+      </c>
+      <c r="H4">
+        <v>10505</v>
+      </c>
+      <c r="I4">
+        <v>10525</v>
+      </c>
+      <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C5">
+        <v>10600</v>
+      </c>
+      <c r="D5">
+        <v>10480</v>
+      </c>
+      <c r="E5">
+        <v>10568</v>
+      </c>
+      <c r="F5">
+        <v>10572</v>
+      </c>
+      <c r="G5">
+        <v>10594</v>
+      </c>
+      <c r="H5">
+        <v>10554</v>
+      </c>
+      <c r="I5">
+        <v>10597</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C6">
+        <v>10670</v>
+      </c>
+      <c r="D6">
+        <v>10533</v>
+      </c>
+      <c r="E6">
+        <v>10636</v>
+      </c>
+      <c r="F6">
+        <v>10648</v>
+      </c>
+      <c r="G6">
+        <v>10663</v>
+      </c>
+      <c r="H6">
+        <v>10571</v>
+      </c>
+      <c r="I6">
+        <v>10658</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C7">
+        <v>10704</v>
+      </c>
+      <c r="D7">
+        <v>10566</v>
+      </c>
+      <c r="E7">
+        <v>10630</v>
+      </c>
+      <c r="F7">
+        <v>10652</v>
+      </c>
+      <c r="G7">
+        <v>10701</v>
+      </c>
+      <c r="H7">
+        <v>10563</v>
+      </c>
+      <c r="I7">
+        <v>10705</v>
+      </c>
+      <c r="J7">
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C8">
+        <v>10759</v>
+      </c>
+      <c r="D8">
+        <v>10594</v>
+      </c>
+      <c r="E8">
+        <v>10666</v>
+      </c>
+      <c r="F8">
+        <v>10694</v>
+      </c>
+      <c r="G8">
+        <v>10737</v>
+      </c>
+      <c r="H8">
+        <v>10554</v>
+      </c>
+      <c r="I8">
+        <v>10736</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C2">
+        <v>870</v>
+      </c>
+      <c r="D2">
+        <v>870</v>
+      </c>
+      <c r="E2">
+        <v>870</v>
+      </c>
+      <c r="F2">
+        <v>870</v>
+      </c>
+      <c r="G2">
+        <v>870</v>
+      </c>
+      <c r="H2">
+        <v>871</v>
+      </c>
+      <c r="I2">
+        <v>870</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C3">
+        <v>900</v>
+      </c>
+      <c r="D3">
+        <v>899</v>
+      </c>
+      <c r="E3">
+        <v>900</v>
+      </c>
+      <c r="F3">
+        <v>901</v>
+      </c>
+      <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
+        <v>899</v>
+      </c>
+      <c r="I3">
+        <v>899</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C4">
+        <v>925</v>
+      </c>
+      <c r="D4">
+        <v>926</v>
+      </c>
+      <c r="E4">
+        <v>925</v>
+      </c>
+      <c r="F4">
+        <v>926</v>
+      </c>
+      <c r="G4">
+        <v>923</v>
+      </c>
+      <c r="H4">
+        <v>926</v>
+      </c>
+      <c r="I4">
+        <v>923</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C5">
+        <v>951</v>
+      </c>
+      <c r="D5">
+        <v>954</v>
+      </c>
+      <c r="E5">
+        <v>952</v>
+      </c>
+      <c r="F5">
+        <v>952</v>
+      </c>
+      <c r="G5">
+        <v>949</v>
+      </c>
+      <c r="H5">
+        <v>951</v>
+      </c>
+      <c r="I5">
+        <v>949</v>
+      </c>
+      <c r="J5">
+        <v>11</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C6">
+        <v>977</v>
+      </c>
+      <c r="D6">
+        <v>979</v>
+      </c>
+      <c r="E6">
+        <v>977</v>
+      </c>
+      <c r="F6">
+        <v>978</v>
+      </c>
+      <c r="G6">
+        <v>975</v>
+      </c>
+      <c r="H6">
+        <v>975</v>
+      </c>
+      <c r="I6">
+        <v>975</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C7">
+        <v>1001</v>
+      </c>
+      <c r="D7">
+        <v>996</v>
+      </c>
+      <c r="E7">
+        <v>998</v>
+      </c>
+      <c r="F7">
+        <v>999</v>
+      </c>
+      <c r="G7">
+        <v>997</v>
+      </c>
+      <c r="H7">
+        <v>997</v>
+      </c>
+      <c r="I7">
+        <v>998</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C8">
+        <v>1025</v>
+      </c>
+      <c r="D8">
+        <v>1015</v>
+      </c>
+      <c r="E8">
+        <v>1019</v>
+      </c>
+      <c r="F8">
+        <v>1020</v>
+      </c>
+      <c r="G8">
+        <v>1020</v>
+      </c>
+      <c r="H8">
+        <v>1019</v>
+      </c>
+      <c r="I8">
+        <v>1019</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C2">
+        <v>5123</v>
+      </c>
+      <c r="D2">
+        <v>5092</v>
+      </c>
+      <c r="E2">
+        <v>5088</v>
+      </c>
+      <c r="F2">
+        <v>5086</v>
+      </c>
+      <c r="G2">
+        <v>5082</v>
+      </c>
+      <c r="H2">
+        <v>5090</v>
+      </c>
+      <c r="I2">
+        <v>5082</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C3">
+        <v>5184</v>
+      </c>
+      <c r="D3">
+        <v>5133</v>
+      </c>
+      <c r="E3">
+        <v>5122</v>
+      </c>
+      <c r="F3">
+        <v>5120</v>
+      </c>
+      <c r="G3">
+        <v>5112</v>
+      </c>
+      <c r="H3">
+        <v>5112</v>
+      </c>
+      <c r="I3">
+        <v>5110</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C4">
+        <v>5242</v>
+      </c>
+      <c r="D4">
+        <v>5137</v>
+      </c>
+      <c r="E4">
+        <v>5137</v>
+      </c>
+      <c r="F4">
+        <v>5135</v>
+      </c>
+      <c r="G4">
+        <v>5121</v>
+      </c>
+      <c r="H4">
+        <v>5133</v>
+      </c>
+      <c r="I4">
+        <v>5121</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C5">
+        <v>5304</v>
+      </c>
+      <c r="D5">
+        <v>5154</v>
+      </c>
+      <c r="E5">
+        <v>5146</v>
+      </c>
+      <c r="F5">
+        <v>5140</v>
+      </c>
+      <c r="G5">
+        <v>5124</v>
+      </c>
+      <c r="H5">
+        <v>5142</v>
+      </c>
+      <c r="I5">
+        <v>5123</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C6">
+        <v>5384</v>
+      </c>
+      <c r="D6">
+        <v>5167</v>
+      </c>
+      <c r="E6">
+        <v>5155</v>
+      </c>
+      <c r="F6">
+        <v>5151</v>
+      </c>
+      <c r="G6">
+        <v>5130</v>
+      </c>
+      <c r="H6">
+        <v>5157</v>
+      </c>
+      <c r="I6">
+        <v>5137</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C7">
+        <v>5541</v>
+      </c>
+      <c r="D7">
+        <v>5221</v>
+      </c>
+      <c r="E7">
+        <v>5177</v>
+      </c>
+      <c r="F7">
+        <v>5173</v>
+      </c>
+      <c r="G7">
+        <v>5164</v>
+      </c>
+      <c r="H7">
+        <v>5176</v>
+      </c>
+      <c r="I7">
+        <v>5153</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C8">
+        <v>5686</v>
+      </c>
+      <c r="D8">
+        <v>5218</v>
+      </c>
+      <c r="E8">
+        <v>5181</v>
+      </c>
+      <c r="F8">
+        <v>5179</v>
+      </c>
+      <c r="G8">
+        <v>5163</v>
+      </c>
+      <c r="H8">
+        <v>5195</v>
+      </c>
+      <c r="I8">
+        <v>5167</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C2">
+        <v>122</v>
+      </c>
+      <c r="D2">
+        <v>96</v>
+      </c>
+      <c r="E2">
+        <v>108</v>
+      </c>
+      <c r="F2">
+        <v>117</v>
+      </c>
+      <c r="G2">
+        <v>116</v>
+      </c>
+      <c r="H2">
+        <v>102</v>
+      </c>
+      <c r="I2">
+        <v>119</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>106</v>
+      </c>
+      <c r="G3">
+        <v>116</v>
+      </c>
+      <c r="H3">
+        <v>91</v>
+      </c>
+      <c r="I3">
+        <v>108</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C4">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>84</v>
+      </c>
+      <c r="F4">
+        <v>88</v>
+      </c>
+      <c r="G4">
+        <v>88</v>
+      </c>
+      <c r="H4">
+        <v>81</v>
+      </c>
+      <c r="I4">
+        <v>90</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <v>66</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>55</v>
+      </c>
+      <c r="H6">
+        <v>58</v>
+      </c>
+      <c r="I6">
+        <v>56</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C7">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>47</v>
+      </c>
+      <c r="G7">
+        <v>52</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>49</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C8">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+      <c r="I8">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>43936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="109">
   <si>
     <t>Provincia</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Notas</t>
-  </si>
-  <si>
-    <t>Fuente: https://twitter.com/JuanMa_Moreno</t>
   </si>
   <si>
     <t>Ntest.acum</t>
@@ -325,9 +322,6 @@
     <t>notas</t>
   </si>
   <si>
-    <t>https://twitter.com/AndaluciaJunta/status/1247466253683482624?s=20</t>
-  </si>
-  <si>
     <t>Incluye positivos en test rapidos (a diferencia de Ministerio): https://www.juntadeandalucia.es/organismos/saludyfamilias/actualidad/noticias/detalle/234496.html</t>
   </si>
   <si>
@@ -368,6 +362,12 @@
   </si>
   <si>
     <t>row</t>
+  </si>
+  <si>
+    <t>Fuente: https://twitter.com/AndaluciaJunta</t>
+  </si>
+  <si>
+    <t>Vease tambien  https://docs.google.com/spreadsheets/d/1U-PFh3VmXAs1rgGxTNHkFtlPoM-ZyEGG_chtYdlLoyI/edit#gid=0</t>
   </si>
 </sst>
 </file>
@@ -732,12 +732,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K289"/>
+  <dimension ref="A1:K297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="600" topLeftCell="A274" activePane="bottomLeft"/>
-      <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="B289" sqref="B282:B289"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="I283" sqref="I283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,10 +762,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>12</v>
@@ -774,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>13</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>5</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>6</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>7</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1252,7 +1252,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B46" t="s">
         <v>11</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B47" t="s">
         <v>5</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B55" t="s">
         <v>5</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B66" t="s">
         <v>1</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B74" t="s">
         <v>1</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2468,7 +2468,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B83" t="s">
         <v>2</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B99" t="s">
         <v>2</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B102" t="s">
         <v>11</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B107" t="s">
         <v>2</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B114" t="s">
         <v>1</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B118" t="s">
         <v>11</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -3408,7 +3408,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3460,7 +3460,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B122" t="s">
         <v>1</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B126" t="s">
         <v>11</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B130" t="s">
         <v>1</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B131" t="s">
         <v>2</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B134" t="s">
         <v>11</v>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B138" t="s">
         <v>1</v>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B139" t="s">
         <v>2</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -4058,7 +4058,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -4084,7 +4084,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B146" t="s">
         <v>1</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B154" t="s">
         <v>1</v>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B155" t="s">
         <v>2</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B158" t="s">
         <v>11</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B162" t="s">
         <v>1</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B163" t="s">
         <v>2</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
@@ -4615,7 +4615,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B170" t="s">
         <v>1</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B171" t="s">
         <v>2</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B174" t="s">
         <v>11</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -4845,7 +4845,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B178" t="s">
         <v>1</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B179" t="s">
         <v>2</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B181" t="s">
         <v>4</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -5029,7 +5029,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B186" t="s">
         <v>1</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B187" t="s">
         <v>2</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B189" t="s">
         <v>4</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B190" t="s">
         <v>11</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B194" t="s">
         <v>1</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B195" t="s">
         <v>2</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B197" t="s">
         <v>4</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -5444,7 +5444,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B202" t="s">
         <v>1</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B203" t="s">
         <v>2</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B205" t="s">
         <v>4</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B206" t="s">
         <v>11</v>
@@ -5559,7 +5559,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B208" t="s">
         <v>6</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B210" t="s">
         <v>1</v>
@@ -5651,7 +5651,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B211" t="s">
         <v>2</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B217" t="s">
         <v>7</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B218" t="s">
         <v>1</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B219" t="s">
         <v>2</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -5950,7 +5950,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B226" t="s">
         <v>1</v>
@@ -6019,7 +6019,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B227" t="s">
         <v>2</v>
@@ -6042,7 +6042,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B228" t="s">
         <v>3</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B229" t="s">
         <v>4</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B232" t="s">
         <v>6</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -6180,7 +6180,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B234" t="s">
         <v>1</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B235" t="s">
         <v>2</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B236" t="s">
         <v>3</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B238" t="s">
         <v>11</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -6318,7 +6318,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B242" t="s">
         <v>1</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B243" t="s">
         <v>2</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B244" t="s">
         <v>3</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B245" t="s">
         <v>4</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B246" t="s">
         <v>11</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -6502,7 +6502,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -6525,7 +6525,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B249" t="s">
         <v>7</v>
@@ -6548,7 +6548,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B250" t="s">
         <v>1</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B251" t="s">
         <v>2</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B252" t="s">
         <v>3</v>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B253" t="s">
         <v>4</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B254" t="s">
         <v>11</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -6709,7 +6709,7 @@
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -6732,7 +6732,7 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B258" t="s">
         <v>1</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B259" t="s">
         <v>2</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B260" t="s">
         <v>3</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B261" t="s">
         <v>4</v>
@@ -6824,7 +6824,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B262" t="s">
         <v>11</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -6916,7 +6916,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B266" t="s">
         <v>1</v>
@@ -6937,12 +6937,12 @@
         <v>96</v>
       </c>
       <c r="K266" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B267" t="s">
         <v>2</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B268" t="s">
         <v>3</v>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B269" t="s">
         <v>4</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B270" t="s">
         <v>11</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B273" t="s">
         <v>7</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B274" t="s">
         <v>1</v>
@@ -7126,7 +7126,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B275" t="s">
         <v>2</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B276" t="s">
         <v>3</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B277" t="s">
         <v>4</v>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B278" t="s">
         <v>11</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -7241,7 +7241,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B282" t="s">
         <v>1</v>
@@ -7305,12 +7305,12 @@
         <v>38</v>
       </c>
       <c r="I282">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B283" t="s">
         <v>2</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B284" t="s">
         <v>3</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B285" t="s">
         <v>4</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B286" t="s">
         <v>11</v>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -7448,7 +7448,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -7467,6 +7467,190 @@
       </c>
       <c r="I289">
         <v>402</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>436</v>
+      </c>
+      <c r="D290">
+        <v>186</v>
+      </c>
+      <c r="E290">
+        <v>35</v>
+      </c>
+      <c r="G290">
+        <v>39</v>
+      </c>
+      <c r="I290">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>1110</v>
+      </c>
+      <c r="D291">
+        <v>466</v>
+      </c>
+      <c r="E291">
+        <v>73</v>
+      </c>
+      <c r="G291">
+        <v>71</v>
+      </c>
+      <c r="I291">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>1259</v>
+      </c>
+      <c r="D292">
+        <v>486</v>
+      </c>
+      <c r="E292">
+        <v>64</v>
+      </c>
+      <c r="G292">
+        <v>70</v>
+      </c>
+      <c r="I292">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>1956</v>
+      </c>
+      <c r="D293">
+        <v>1018</v>
+      </c>
+      <c r="E293">
+        <v>117</v>
+      </c>
+      <c r="G293">
+        <v>191</v>
+      </c>
+      <c r="I293">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294">
+        <v>352</v>
+      </c>
+      <c r="D294">
+        <v>201</v>
+      </c>
+      <c r="E294">
+        <v>29</v>
+      </c>
+      <c r="G294">
+        <v>29</v>
+      </c>
+      <c r="I294">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+      <c r="C295">
+        <v>1233</v>
+      </c>
+      <c r="D295">
+        <v>612</v>
+      </c>
+      <c r="E295">
+        <v>62</v>
+      </c>
+      <c r="G295">
+        <v>129</v>
+      </c>
+      <c r="I295">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296">
+        <v>2429</v>
+      </c>
+      <c r="D296">
+        <v>1317</v>
+      </c>
+      <c r="E296">
+        <v>157</v>
+      </c>
+      <c r="G296">
+        <v>214</v>
+      </c>
+      <c r="I296">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297">
+        <v>2278</v>
+      </c>
+      <c r="D297">
+        <v>1012</v>
+      </c>
+      <c r="E297">
+        <v>138</v>
+      </c>
+      <c r="G297">
+        <v>197</v>
+      </c>
+      <c r="I297">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -7495,43 +7679,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7829,10 +8013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7846,19 +8030,19 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -7866,459 +8050,505 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B2">
-        <v>20791</v>
+        <v>18592</v>
       </c>
       <c r="C2">
-        <v>4277</v>
+        <v>3793</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B3">
-        <v>21235</v>
+        <v>20791</v>
       </c>
       <c r="C3">
-        <v>4682</v>
+        <v>4277</v>
       </c>
       <c r="D3">
         <f>B3-B2</f>
-        <v>444</v>
+        <v>2199</v>
       </c>
       <c r="E3">
         <f>C3-C2</f>
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">E3/D3</f>
-        <v>0.91216216216216217</v>
+        <f t="shared" ref="F3" si="0">E3/D3</f>
+        <v>0.220100045475216</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B4">
-        <v>23967</v>
+        <v>21235</v>
       </c>
       <c r="C4">
-        <v>5405</v>
+        <v>4682</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D6" si="1">B4-B3</f>
-        <v>2732</v>
+        <f>B4-B3</f>
+        <v>444</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E6" si="2">C4-C3</f>
-        <v>723</v>
+        <f>C4-C3</f>
+        <v>405</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.26464128843338214</v>
+        <f t="shared" ref="F4:F7" si="1">E4/D4</f>
+        <v>0.91216216216216217</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B5">
-        <v>24850</v>
+        <v>23967</v>
       </c>
       <c r="C5">
-        <v>5818</v>
+        <v>5405</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5:D7" si="2">B5-B4</f>
+        <v>2732</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E7" si="3">C5-C4</f>
+        <v>723</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="1"/>
-        <v>883</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>413</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0.46772366930917325</v>
+        <v>0.26464128843338214</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B6">
-        <v>26813</v>
+        <v>24850</v>
       </c>
       <c r="C6">
-        <v>6392</v>
+        <v>5818</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
+        <v>883</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="1"/>
-        <v>1963</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>574</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.29240957717778909</v>
+        <v>0.46772366930917325</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="B7">
-        <v>28863</v>
+        <v>26813</v>
       </c>
       <c r="C7">
-        <v>6972</v>
+        <v>6392</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7" si="3">B7-B6</f>
-        <v>2050</v>
+        <f t="shared" si="2"/>
+        <v>1963</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7" si="4">C7-C6</f>
-        <v>580</v>
+        <f t="shared" si="3"/>
+        <v>574</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7" si="5">E7/D7</f>
-        <v>0.28292682926829266</v>
+        <f t="shared" si="1"/>
+        <v>0.29240957717778909</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="B8">
-        <v>30679</v>
+        <v>28863</v>
       </c>
       <c r="C8">
-        <v>7374</v>
+        <v>6972</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8" si="6">B8-B7</f>
-        <v>1816</v>
+        <f t="shared" ref="D8" si="4">B8-B7</f>
+        <v>2050</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8" si="7">C8-C7</f>
-        <v>402</v>
+        <f t="shared" ref="E8" si="5">C8-C7</f>
+        <v>580</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8" si="8">E8/D8</f>
-        <v>0.22136563876651982</v>
+        <f t="shared" ref="F8" si="6">E8/D8</f>
+        <v>0.28292682926829266</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="B9">
-        <v>32320</v>
+        <v>30679</v>
       </c>
       <c r="C9">
-        <v>7869</v>
+        <v>7374</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9" si="9">B9-B8</f>
-        <v>1641</v>
+        <f t="shared" ref="D9" si="7">B9-B8</f>
+        <v>1816</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9" si="10">C9-C8</f>
-        <v>495</v>
+        <f t="shared" ref="E9" si="8">C9-C8</f>
+        <v>402</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9" si="11">E9/D9</f>
-        <v>0.3016453382084095</v>
+        <f t="shared" ref="F9" si="9">E9/D9</f>
+        <v>0.22136563876651982</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B10">
-        <v>34096</v>
+        <v>32320</v>
       </c>
       <c r="C10">
-        <v>8301</v>
+        <v>7869</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10" si="12">B10-B9</f>
-        <v>1776</v>
+        <f t="shared" ref="D10" si="10">B10-B9</f>
+        <v>1641</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10" si="13">C10-C9</f>
-        <v>432</v>
+        <f t="shared" ref="E10" si="11">C10-C9</f>
+        <v>495</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10" si="14">E10/D10</f>
-        <v>0.24324324324324326</v>
+        <f t="shared" ref="F10" si="12">E10/D10</f>
+        <v>0.3016453382084095</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B11">
-        <v>34592</v>
+        <v>34096</v>
       </c>
       <c r="C11">
-        <v>8581</v>
+        <v>8301</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11" si="15">B11-B10</f>
-        <v>496</v>
+        <f t="shared" ref="D11" si="13">B11-B10</f>
+        <v>1776</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="16">C11-C10</f>
-        <v>280</v>
+        <f t="shared" ref="E11" si="14">C11-C10</f>
+        <v>432</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11" si="17">E11/D11</f>
-        <v>0.56451612903225812</v>
+        <f t="shared" ref="F11" si="15">E11/D11</f>
+        <v>0.24324324324324326</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B12">
-        <v>35182</v>
+        <v>34592</v>
       </c>
       <c r="C12">
-        <v>8767</v>
+        <v>8581</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12" si="18">B12-B11</f>
-        <v>590</v>
+        <f t="shared" ref="D12" si="16">B12-B11</f>
+        <v>496</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12" si="19">C12-C11</f>
-        <v>186</v>
+        <f t="shared" ref="E12" si="17">C12-C11</f>
+        <v>280</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12" si="20">E12/D12</f>
-        <v>0.31525423728813562</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
+        <f t="shared" ref="F12" si="18">E12/D12</f>
+        <v>0.56451612903225812</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B13">
-        <v>36635</v>
+        <v>35182</v>
       </c>
       <c r="C13">
-        <v>8997</v>
+        <v>8767</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13" si="21">B13-B12</f>
-        <v>1453</v>
+        <f t="shared" ref="D13" si="19">B13-B12</f>
+        <v>590</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13" si="22">C13-C12</f>
-        <v>230</v>
+        <f t="shared" ref="E13" si="20">C13-C12</f>
+        <v>186</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13" si="23">E13/D13</f>
-        <v>0.15829318651066759</v>
+        <f t="shared" ref="F13" si="21">E13/D13</f>
+        <v>0.31525423728813562</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B14">
-        <v>38223</v>
+        <v>36635</v>
       </c>
       <c r="C14">
-        <v>9261</v>
+        <v>8997</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14" si="24">B14-B13</f>
-        <v>1588</v>
+        <f t="shared" ref="D14" si="22">B14-B13</f>
+        <v>1453</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14" si="25">C14-C13</f>
-        <v>264</v>
+        <f t="shared" ref="E14" si="23">C14-C13</f>
+        <v>230</v>
       </c>
       <c r="F14">
-        <f t="shared" ref="F14" si="26">E14/D14</f>
-        <v>0.16624685138539042</v>
+        <f t="shared" ref="F14" si="24">E14/D14</f>
+        <v>0.15829318651066759</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="B15">
-        <v>39820</v>
+        <v>38223</v>
       </c>
       <c r="C15">
-        <v>9510</v>
+        <v>9261</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D16" si="27">B15-B14</f>
-        <v>1597</v>
+        <f t="shared" ref="D15" si="25">B15-B14</f>
+        <v>1588</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E16" si="28">C15-C14</f>
-        <v>249</v>
+        <f t="shared" ref="E15" si="26">C15-C14</f>
+        <v>264</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F16" si="29">E15/D15</f>
-        <v>0.15591734502191609</v>
+        <f t="shared" ref="F15" si="27">E15/D15</f>
+        <v>0.16624685138539042</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="B16">
-        <v>40628</v>
+        <v>39820</v>
       </c>
       <c r="C16">
-        <v>9712</v>
+        <v>9510</v>
       </c>
       <c r="D16">
-        <f t="shared" si="27"/>
-        <v>808</v>
+        <f t="shared" ref="D16:D17" si="28">B16-B15</f>
+        <v>1597</v>
       </c>
       <c r="E16">
-        <f t="shared" si="28"/>
-        <v>202</v>
+        <f t="shared" ref="E16:E17" si="29">C16-C15</f>
+        <v>249</v>
       </c>
       <c r="F16">
-        <f t="shared" si="29"/>
-        <v>0.25</v>
+        <f t="shared" ref="F16:F17" si="30">E16/D16</f>
+        <v>0.15591734502191609</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B17">
-        <v>41227</v>
+        <v>40628</v>
       </c>
       <c r="C17">
-        <v>10006</v>
+        <v>9712</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17" si="30">B17-B16</f>
-        <v>599</v>
+        <f t="shared" si="28"/>
+        <v>808</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17" si="31">C17-C16</f>
-        <v>294</v>
+        <f t="shared" si="29"/>
+        <v>202</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17" si="32">E17/D17</f>
-        <v>0.49081803005008345</v>
+        <f t="shared" si="30"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B18">
-        <v>41749</v>
+        <v>41227</v>
       </c>
       <c r="C18">
-        <v>10187</v>
+        <v>10006</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18" si="33">B18-B17</f>
-        <v>522</v>
+        <f t="shared" ref="D18" si="31">B18-B17</f>
+        <v>599</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="34">C18-C17</f>
-        <v>181</v>
+        <f t="shared" ref="E18" si="32">C18-C17</f>
+        <v>294</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18" si="35">E18/D18</f>
-        <v>0.34674329501915707</v>
+        <f t="shared" ref="F18" si="33">E18/D18</f>
+        <v>0.49081803005008345</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B19">
-        <v>42363</v>
+        <v>41749</v>
       </c>
       <c r="C19">
-        <v>10306</v>
+        <v>10187</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19" si="36">B19-B18</f>
-        <v>614</v>
+        <f t="shared" ref="D19" si="34">B19-B18</f>
+        <v>522</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="37">C19-C18</f>
-        <v>119</v>
+        <f t="shared" ref="E19" si="35">C19-C18</f>
+        <v>181</v>
       </c>
       <c r="F19">
-        <f t="shared" ref="F19" si="38">E19/D19</f>
-        <v>0.19381107491856678</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
+        <f t="shared" ref="F19" si="36">E19/D19</f>
+        <v>0.34674329501915707</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B20">
-        <v>43625</v>
+        <v>42363</v>
       </c>
       <c r="C20">
-        <v>10595</v>
+        <v>10306</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20" si="39">B20-B19</f>
-        <v>1262</v>
+        <f t="shared" ref="D20" si="37">B20-B19</f>
+        <v>614</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20" si="40">C20-C19</f>
-        <v>289</v>
+        <f t="shared" ref="E20" si="38">C20-C19</f>
+        <v>119</v>
       </c>
       <c r="F20">
-        <f t="shared" ref="F20" si="41">E20/D20</f>
-        <v>0.22900158478605387</v>
+        <f t="shared" ref="F20" si="39">E20/D20</f>
+        <v>0.19381107491856678</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B21">
+        <v>43625</v>
+      </c>
+      <c r="C21">
+        <v>10595</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="40">B21-B20</f>
+        <v>1262</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21" si="41">C21-C20</f>
+        <v>289</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="42">E21/D21</f>
+        <v>0.22900158478605387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B22">
+        <v>44598</v>
+      </c>
+      <c r="C22">
+        <v>10807</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22" si="43">B22-B21</f>
+        <v>973</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22" si="44">C22-C21</f>
+        <v>212</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22" si="45">E22/D22</f>
+        <v>0.21788283658787255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>43937</v>
       </c>
-      <c r="B21">
-        <v>44598</v>
-      </c>
-      <c r="C21">
-        <v>10807</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21" si="42">B21-B20</f>
-        <v>973</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="E21" si="43">C21-C20</f>
-        <v>212</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21" si="44">E21/D21</f>
-        <v>0.21788283658787255</v>
+      <c r="B23">
+        <v>45675</v>
+      </c>
+      <c r="C23">
+        <v>11053</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23" si="46">B23-B22</f>
+        <v>1077</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23" si="47">C23-C22</f>
+        <v>246</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="48">E23/D23</f>
+        <v>0.22841225626740946</v>
       </c>
     </row>
   </sheetData>
@@ -8345,15 +8575,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>157</v>
@@ -8361,7 +8591,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -8369,7 +8599,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5">
         <v>67</v>
@@ -8377,7 +8607,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>174</v>
@@ -8385,7 +8615,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>118</v>
@@ -8393,7 +8623,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -8401,7 +8631,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>109</v>
@@ -8409,7 +8639,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>93</v>
@@ -8417,7 +8647,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>67</v>
@@ -8425,7 +8655,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>73</v>
@@ -8433,7 +8663,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>358</v>
@@ -8441,7 +8671,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>295</v>
@@ -8449,7 +8679,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>311</v>
@@ -8457,7 +8687,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>150</v>
@@ -8465,7 +8695,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>364</v>
@@ -8473,7 +8703,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -8481,7 +8711,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>458</v>
@@ -8489,7 +8719,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>366</v>
@@ -8497,7 +8727,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>626</v>
@@ -8505,7 +8735,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -8513,7 +8743,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>145</v>
@@ -8521,7 +8751,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23">
         <v>425</v>
@@ -8529,7 +8759,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>129</v>
@@ -8537,7 +8767,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>294</v>
@@ -8545,7 +8775,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>79</v>
@@ -8553,7 +8783,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>209</v>
@@ -8561,7 +8791,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28">
         <v>1106</v>
@@ -8569,7 +8799,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>666</v>
@@ -8577,7 +8807,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>153</v>
@@ -8585,7 +8815,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>828</v>
@@ -8593,7 +8823,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>127</v>
@@ -8601,7 +8831,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>115</v>
@@ -8609,7 +8839,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>150</v>
@@ -8617,7 +8847,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="5">
         <v>112</v>
@@ -8646,25 +8876,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
         <v>92</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8672,7 +8902,7 @@
         <v>3004</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -8712,7 +8942,7 @@
         <v>3012</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -8732,7 +8962,7 @@
         <v>3013</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -8752,7 +8982,7 @@
         <v>3003</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -8772,7 +9002,7 @@
         <v>3022</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -8812,7 +9042,7 @@
         <v>3049</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -8832,7 +9062,7 @@
         <v>3043</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -8852,7 +9082,7 @@
         <v>3026</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -8892,7 +9122,7 @@
         <v>3029</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -8912,7 +9142,7 @@
         <v>3023</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -8932,7 +9162,7 @@
         <v>3048</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -8952,7 +9182,7 @@
         <v>3030</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -8992,7 +9222,7 @@
         <v>3045</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -9012,7 +9242,7 @@
         <v>3034</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -9032,7 +9262,7 @@
         <v>3001</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -9052,7 +9282,7 @@
         <v>3032</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -9072,7 +9302,7 @@
         <v>3011</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -9092,7 +9322,7 @@
         <v>3033</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -9132,7 +9362,7 @@
         <v>3056</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -9152,7 +9382,7 @@
         <v>3050</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -9172,7 +9402,7 @@
         <v>3052</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -9212,7 +9442,7 @@
         <v>3047</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -9232,7 +9462,7 @@
         <v>3051</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -9252,7 +9482,7 @@
         <v>3002</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -9272,7 +9502,7 @@
         <v>3062</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -9292,7 +9522,7 @@
         <v>3009</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -9312,7 +9542,7 @@
         <v>3021</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -9345,7 +9575,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -9370,43 +9600,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -9719,43 +9949,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10068,43 +10298,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10417,43 +10647,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -735,9 +735,9 @@
   <dimension ref="A1:K297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A274" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A280" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="I283" sqref="I283"/>
+      <selection pane="bottomLeft" activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7575,7 +7575,7 @@
         <v>201</v>
       </c>
       <c r="E294">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G294">
         <v>29</v>

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
     <sheet name="test-Andal" sheetId="2" r:id="rId2"/>
-    <sheet name="distritos-raw" sheetId="3" r:id="rId3"/>
-    <sheet name="distritos" sheetId="4" r:id="rId4"/>
+    <sheet name="distritos" sheetId="4" r:id="rId3"/>
+    <sheet name="distritos-raw" sheetId="3" r:id="rId4"/>
     <sheet name="Pred_metadata" sheetId="6" r:id="rId5"/>
     <sheet name="Pred_And_Confirmados" sheetId="5" r:id="rId6"/>
     <sheet name="Pred_And_Fallecidos" sheetId="7" r:id="rId7"/>
@@ -19,7 +19,7 @@
     <sheet name="Pred_And_UCI" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="distri" localSheetId="3">distritos!$A$1:$D$34</definedName>
+    <definedName name="distri" localSheetId="2">distritos!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="109">
   <si>
     <t>Provincia</t>
   </si>
@@ -732,12 +732,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K297"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A280" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A286" activePane="bottomLeft"/>
       <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="E294" sqref="E294"/>
+      <selection pane="bottomLeft" activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7651,6 +7651,190 @@
       </c>
       <c r="I297">
         <v>416</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>444</v>
+      </c>
+      <c r="D298">
+        <v>188</v>
+      </c>
+      <c r="E298">
+        <v>35</v>
+      </c>
+      <c r="G298">
+        <v>41</v>
+      </c>
+      <c r="I298">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>1122</v>
+      </c>
+      <c r="D299">
+        <v>468</v>
+      </c>
+      <c r="E299">
+        <v>73</v>
+      </c>
+      <c r="G299">
+        <v>74</v>
+      </c>
+      <c r="I299">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <v>1266</v>
+      </c>
+      <c r="D300">
+        <v>490</v>
+      </c>
+      <c r="E300">
+        <v>66</v>
+      </c>
+      <c r="G300">
+        <v>72</v>
+      </c>
+      <c r="I300">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>1969</v>
+      </c>
+      <c r="D301">
+        <v>1025</v>
+      </c>
+      <c r="E301">
+        <v>117</v>
+      </c>
+      <c r="G301">
+        <v>193</v>
+      </c>
+      <c r="I301">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B302" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302">
+        <v>358</v>
+      </c>
+      <c r="D302">
+        <v>204</v>
+      </c>
+      <c r="E302">
+        <v>29</v>
+      </c>
+      <c r="G302">
+        <v>32</v>
+      </c>
+      <c r="I302">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B303" t="s">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>1274</v>
+      </c>
+      <c r="D303">
+        <v>625</v>
+      </c>
+      <c r="E303">
+        <v>63</v>
+      </c>
+      <c r="G303">
+        <v>131</v>
+      </c>
+      <c r="I303">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304">
+        <v>2472</v>
+      </c>
+      <c r="D304">
+        <v>1325</v>
+      </c>
+      <c r="E304">
+        <v>158</v>
+      </c>
+      <c r="G304">
+        <v>217</v>
+      </c>
+      <c r="I304">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305">
+        <v>2299</v>
+      </c>
+      <c r="D305">
+        <v>1016</v>
+      </c>
+      <c r="E305">
+        <v>136</v>
+      </c>
+      <c r="G305">
+        <v>207</v>
+      </c>
+      <c r="I305">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -8013,10 +8197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:F23"/>
+      <selection activeCell="D23" sqref="D23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8551,6 +8735,29 @@
         <v>0.22841225626740946</v>
       </c>
     </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B24">
+        <v>46618</v>
+      </c>
+      <c r="C24">
+        <v>11204</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="49">B24-B23</f>
+        <v>943</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24" si="50">C24-C23</f>
+        <v>151</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24" si="51">E24/D24</f>
+        <v>0.16012725344644752</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F5">
     <sortCondition ref="A1"/>
@@ -8561,6 +8768,711 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3005</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3049</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3043</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F10">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3026</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F11">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3046</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F12">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3029</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3023</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3048</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3030</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F16">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3031</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F17">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3045</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F18">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3034</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F19">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F20">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3032</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F21">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3011</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F22">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3033</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3028</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F24">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3056</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3050</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F26">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3052</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3057</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F28">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3047</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3051</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F30">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F31">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3062</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F32">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3009</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1">
+        <v>43927</v>
+      </c>
+      <c r="F34">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -8855,711 +9767,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3005</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3012</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3013</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F5">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F6">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3022</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F7">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3020</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F8">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3049</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F9">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3043</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F10">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3026</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>29</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F11">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3046</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F12">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3029</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F13">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3023</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F14">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3048</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3030</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F16">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3031</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F17">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3045</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F18">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3034</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F19">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3001</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F20">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3032</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="E21" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F21">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3011</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F22">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>3033</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F23">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3028</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F24">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3056</v>
-      </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>18</v>
-      </c>
-      <c r="E25" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F25">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3050</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F26">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3052</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>29</v>
-      </c>
-      <c r="E27" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F27">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>3057</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28">
-        <v>41</v>
-      </c>
-      <c r="E28" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F28">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3047</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F29">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>3051</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F30">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F31">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3062</v>
-      </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>11</v>
-      </c>
-      <c r="E32" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F32">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3009</v>
-      </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>21</v>
-      </c>
-      <c r="E33" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F33">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3021</v>
-      </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>29</v>
-      </c>
-      <c r="E34" s="1">
-        <v>43927</v>
-      </c>
-      <c r="F34">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="108">
   <si>
     <t>Provincia</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>UCI.acum</t>
-  </si>
-  <si>
-    <t>Ingresados.neto</t>
   </si>
   <si>
     <t>Ingresos.acum</t>
@@ -732,12 +729,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K305"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" topLeftCell="A286" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="bottomLeft" activeCell="E305" sqref="E305"/>
+      <pane ySplit="600" activePane="bottomLeft"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +748,7 @@
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -762,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>18</v>
@@ -774,19 +771,16 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43901</v>
       </c>
@@ -797,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43901</v>
       </c>
@@ -808,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43901</v>
       </c>
@@ -819,7 +813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43901</v>
       </c>
@@ -830,7 +824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43901</v>
       </c>
@@ -841,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -852,7 +846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43901</v>
       </c>
@@ -863,7 +857,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43901</v>
       </c>
@@ -874,7 +868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43902</v>
       </c>
@@ -898,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43902</v>
       </c>
@@ -922,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43902</v>
       </c>
@@ -946,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43902</v>
       </c>
@@ -970,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43902</v>
       </c>
@@ -994,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43902</v>
       </c>
@@ -1018,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43902</v>
       </c>
@@ -4843,7 +4837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43922</v>
       </c>
@@ -4866,7 +4860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43923</v>
       </c>
@@ -4889,7 +4883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43923</v>
       </c>
@@ -4912,7 +4906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43923</v>
       </c>
@@ -4935,7 +4929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43923</v>
       </c>
@@ -4958,7 +4952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43923</v>
       </c>
@@ -4981,7 +4975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43923</v>
       </c>
@@ -5004,7 +4998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43923</v>
       </c>
@@ -5027,7 +5021,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43923</v>
       </c>
@@ -5050,7 +5044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43924</v>
       </c>
@@ -5072,11 +5066,8 @@
       <c r="I186">
         <v>37</v>
       </c>
-      <c r="J186">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43924</v>
       </c>
@@ -5098,11 +5089,8 @@
       <c r="I187">
         <v>62</v>
       </c>
-      <c r="J187">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43924</v>
       </c>
@@ -5124,11 +5112,8 @@
       <c r="I188">
         <v>55</v>
       </c>
-      <c r="J188">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43924</v>
       </c>
@@ -5150,11 +5135,8 @@
       <c r="I189">
         <v>47</v>
       </c>
-      <c r="J189">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43924</v>
       </c>
@@ -5176,11 +5158,8 @@
       <c r="I190">
         <v>8</v>
       </c>
-      <c r="J190">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43924</v>
       </c>
@@ -5202,11 +5181,8 @@
       <c r="I191">
         <v>39</v>
       </c>
-      <c r="J191">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43924</v>
       </c>
@@ -5228,11 +5204,8 @@
       <c r="I192">
         <v>162</v>
       </c>
-      <c r="J192">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43924</v>
       </c>
@@ -5254,11 +5227,8 @@
       <c r="I193">
         <v>53</v>
       </c>
-      <c r="J193">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43925</v>
       </c>
@@ -5281,7 +5251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43925</v>
       </c>
@@ -5304,7 +5274,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43925</v>
       </c>
@@ -5327,7 +5297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43925</v>
       </c>
@@ -5350,7 +5320,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43925</v>
       </c>
@@ -5373,7 +5343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43925</v>
       </c>
@@ -5396,7 +5366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43925</v>
       </c>
@@ -5419,7 +5389,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43925</v>
       </c>
@@ -5442,7 +5412,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43926</v>
       </c>
@@ -5465,7 +5435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43926</v>
       </c>
@@ -5488,7 +5458,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43926</v>
       </c>
@@ -5511,7 +5481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43926</v>
       </c>
@@ -5534,7 +5504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43926</v>
       </c>
@@ -5557,7 +5527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>43926</v>
       </c>
@@ -5580,7 +5550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>43926</v>
       </c>
@@ -6707,7 +6677,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>43932</v>
       </c>
@@ -6730,7 +6700,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>43933</v>
       </c>
@@ -6753,7 +6723,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>43933</v>
       </c>
@@ -6776,7 +6746,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>43933</v>
       </c>
@@ -6799,7 +6769,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>43933</v>
       </c>
@@ -6822,7 +6792,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>43933</v>
       </c>
@@ -6845,7 +6815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>43933</v>
       </c>
@@ -6868,7 +6838,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>43933</v>
       </c>
@@ -6891,7 +6861,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>43933</v>
       </c>
@@ -6914,7 +6884,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>43934</v>
       </c>
@@ -6936,11 +6906,11 @@
       <c r="I266">
         <v>96</v>
       </c>
-      <c r="K266" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J266" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>43934</v>
       </c>
@@ -6963,7 +6933,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>43934</v>
       </c>
@@ -6986,7 +6956,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>43934</v>
       </c>
@@ -7009,7 +6979,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>43934</v>
       </c>
@@ -7032,7 +7002,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>43934</v>
       </c>
@@ -7055,7 +7025,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>43934</v>
       </c>
@@ -7759,7 +7729,7 @@
         <v>204</v>
       </c>
       <c r="E302">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G302">
         <v>32</v>
@@ -7828,7 +7798,7 @@
         <v>1016</v>
       </c>
       <c r="E305">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G305">
         <v>207</v>
@@ -7863,43 +7833,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -8243,7 +8213,7 @@
         <v>3793</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8269,7 +8239,7 @@
         <v>0.220100045475216</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8663,7 +8633,7 @@
         <v>0.19381107491856678</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8785,25 +8755,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8811,7 +8781,7 @@
         <v>3004</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -8851,7 +8821,7 @@
         <v>3012</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -8871,7 +8841,7 @@
         <v>3013</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -8891,7 +8861,7 @@
         <v>3003</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -8911,7 +8881,7 @@
         <v>3022</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -8951,7 +8921,7 @@
         <v>3049</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -8971,7 +8941,7 @@
         <v>3043</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -8991,7 +8961,7 @@
         <v>3026</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -9031,7 +9001,7 @@
         <v>3029</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -9051,7 +9021,7 @@
         <v>3023</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -9071,7 +9041,7 @@
         <v>3048</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -9091,7 +9061,7 @@
         <v>3030</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -9131,7 +9101,7 @@
         <v>3045</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -9151,7 +9121,7 @@
         <v>3034</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -9171,7 +9141,7 @@
         <v>3001</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -9191,7 +9161,7 @@
         <v>3032</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -9211,7 +9181,7 @@
         <v>3011</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -9231,7 +9201,7 @@
         <v>3033</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -9271,7 +9241,7 @@
         <v>3056</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -9291,7 +9261,7 @@
         <v>3050</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -9311,7 +9281,7 @@
         <v>3052</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -9351,7 +9321,7 @@
         <v>3047</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -9371,7 +9341,7 @@
         <v>3051</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -9391,7 +9361,7 @@
         <v>3002</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -9411,7 +9381,7 @@
         <v>3062</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -9431,7 +9401,7 @@
         <v>3009</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -9451,7 +9421,7 @@
         <v>3021</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -9487,15 +9457,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>157</v>
@@ -9503,7 +9473,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>101</v>
@@ -9511,7 +9481,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5">
         <v>67</v>
@@ -9519,7 +9489,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>174</v>
@@ -9527,7 +9497,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>118</v>
@@ -9535,7 +9505,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -9543,7 +9513,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>109</v>
@@ -9551,7 +9521,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>93</v>
@@ -9559,7 +9529,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>67</v>
@@ -9567,7 +9537,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>73</v>
@@ -9575,7 +9545,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>358</v>
@@ -9583,7 +9553,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>295</v>
@@ -9591,7 +9561,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>311</v>
@@ -9599,7 +9569,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>150</v>
@@ -9607,7 +9577,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>364</v>
@@ -9615,7 +9585,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>70</v>
@@ -9623,7 +9593,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>458</v>
@@ -9631,7 +9601,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>366</v>
@@ -9639,7 +9609,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>626</v>
@@ -9647,7 +9617,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>40</v>
@@ -9655,7 +9625,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>145</v>
@@ -9663,7 +9633,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>425</v>
@@ -9671,7 +9641,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>129</v>
@@ -9679,7 +9649,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>294</v>
@@ -9687,7 +9657,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>79</v>
@@ -9695,7 +9665,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>209</v>
@@ -9703,7 +9673,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>1106</v>
@@ -9711,7 +9681,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>666</v>
@@ -9719,7 +9689,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>153</v>
@@ -9727,7 +9697,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>828</v>
@@ -9735,7 +9705,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>127</v>
@@ -9743,7 +9713,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>115</v>
@@ -9751,7 +9721,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>150</v>
@@ -9759,7 +9729,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5">
         <v>112</v>
@@ -9782,7 +9752,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9807,43 +9777,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10156,43 +10126,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10505,43 +10475,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -10854,43 +10824,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>102</v>
       </c>
-      <c r="L1" t="s">
-        <v>103</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">

--- a/datos_brutos.xlsx
+++ b/datos_brutos.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="108">
   <si>
     <t>Provincia</t>
   </si>
@@ -729,12 +729,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:J313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A296" activePane="bottomLeft"/>
       <selection activeCell="J1" sqref="J1:J1048576"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="E311" sqref="E311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7805,6 +7805,190 @@
       </c>
       <c r="I305">
         <v>432</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>458</v>
+      </c>
+      <c r="D306">
+        <v>190</v>
+      </c>
+      <c r="E306">
+        <v>36</v>
+      </c>
+      <c r="G306">
+        <v>42</v>
+      </c>
+      <c r="I306">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B307" t="s">
+        <v>2</v>
+      </c>
+      <c r="C307">
+        <v>1139</v>
+      </c>
+      <c r="D307">
+        <v>487</v>
+      </c>
+      <c r="E307">
+        <v>74</v>
+      </c>
+      <c r="G307">
+        <v>75</v>
+      </c>
+      <c r="I307">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B308" t="s">
+        <v>3</v>
+      </c>
+      <c r="C308">
+        <v>1271</v>
+      </c>
+      <c r="D308">
+        <v>492</v>
+      </c>
+      <c r="E308">
+        <v>67</v>
+      </c>
+      <c r="G308">
+        <v>74</v>
+      </c>
+      <c r="I308">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B309" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309">
+        <v>2023</v>
+      </c>
+      <c r="D309">
+        <v>1041</v>
+      </c>
+      <c r="E309">
+        <v>119</v>
+      </c>
+      <c r="G309">
+        <v>196</v>
+      </c>
+      <c r="I309">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B310" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310">
+        <v>377</v>
+      </c>
+      <c r="D310">
+        <v>206</v>
+      </c>
+      <c r="E310">
+        <v>30</v>
+      </c>
+      <c r="G310">
+        <v>34</v>
+      </c>
+      <c r="I310">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311">
+        <v>1297</v>
+      </c>
+      <c r="D311">
+        <v>636</v>
+      </c>
+      <c r="E311">
+        <v>67</v>
+      </c>
+      <c r="G311">
+        <v>137</v>
+      </c>
+      <c r="I311">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312">
+        <v>2531</v>
+      </c>
+      <c r="D312">
+        <v>1346</v>
+      </c>
+      <c r="E312">
+        <v>158</v>
+      </c>
+      <c r="G312">
+        <v>223</v>
+      </c>
+      <c r="I312">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313">
+        <v>2329</v>
+      </c>
+      <c r="D313">
+        <v>1026</v>
+      </c>
+      <c r="E313">
+        <v>138</v>
+      </c>
+      <c r="G313">
+        <v>212</v>
+      </c>
+      <c r="I313">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -8167,10 +8351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F24"/>
+      <selection activeCell="D24" sqref="D24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8726,6 +8910,29 @@
       <c r="F24">
         <f t="shared" ref="F24" si="51">E24/D24</f>
         <v>0.16012725344644752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B25">
+        <v>48070</v>
+      </c>
+      <c r="C25">
+        <v>11425</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="52">B25-B24</f>
+        <v>1452</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="53">C25-C24</f>
+        <v>221</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="54">E25/D25</f>
+        <v>0.15220385674931131</v>
       </c>
     </row>
   </sheetData>
